--- a/table_itajai_test_atualizada.xlsx
+++ b/table_itajai_test_atualizada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB38"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,117 +461,72 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade Material 17</t>
+          <t>entre_postes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Código Material 18</t>
+          <t>altura_lum</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Descrição Material 18</t>
+          <t>angulo</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade Material 18</t>
+          <t>poste_pista</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Código Material 19</t>
+          <t>comprimento_braco</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Descrição Material 19</t>
+          <t>distribuicao</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade Material 19</t>
+          <t>qtde_ruas</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Código Material 20</t>
+          <t>larg_canteiro_central</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Descrição Material 20</t>
+          <t>pendor</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade Material 20</t>
+          <t>classe_via</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>entre_postes</t>
+          <t>classe_passeio</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>altura_lum</t>
+          <t>luminaria_escolhida</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>angulo</t>
+          <t>angulo_escolhido</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>poste_pista</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>comprimento_braco</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>distribuicao</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>qtde_ruas</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>larg_canteiro_central</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>pendor</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>classe_via</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>classe_passeio</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>luminaria_escolhida</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>angulo_escolhido</t>
+          <t>cenario</t>
         </is>
       </c>
     </row>
@@ -591,62 +546,57 @@
       <c r="E2" t="n">
         <v>1.9</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="F2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2" t="n">
         <v>7.6</v>
       </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>canteiro central</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>AGN7060D4</t>
+        </is>
+      </c>
       <c r="R2" t="n">
         <v>5</v>
       </c>
-      <c r="S2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2</v>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>canteiro central</t>
-        </is>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>V1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
-      <c r="AB2" t="n">
-        <v>5</v>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Itajai 1 - AGN7060D4</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -665,63 +615,48 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
+      <c r="F3" t="n">
         <v>32</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="G3" t="n">
         <v>7.8</v>
       </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.1</v>
       </c>
-      <c r="T3" t="n">
-        <v>2</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.5</v>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>AGN7070D4</t>
-        </is>
-      </c>
-      <c r="AB3" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -739,57 +674,48 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="F4" t="n">
         <v>26.2</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="G4" t="n">
         <v>7.8</v>
       </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.1</v>
       </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>canteiro central</t>
         </is>
       </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
         <v>3</v>
       </c>
-      <c r="X4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -807,57 +733,48 @@
       <c r="E5" t="n">
         <v>0.5</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
+      <c r="F5" t="n">
         <v>35.8</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="G5" t="n">
         <v>7.8</v>
       </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.1</v>
       </c>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>bilateral</t>
         </is>
       </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2</v>
-      </c>
-      <c r="X5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>P4</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -875,57 +792,48 @@
       <c r="E6" t="n">
         <v>0.5</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
+      <c r="F6" t="n">
         <v>20</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="G6" t="n">
         <v>7.8</v>
       </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.1</v>
       </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
         <v>3</v>
       </c>
-      <c r="X6" t="n">
+      <c r="N6" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>V5</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -943,57 +851,48 @@
       <c r="E7" t="n">
         <v>2.2</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
+      <c r="F7" t="n">
         <v>37.5</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="G7" t="n">
         <v>6.5</v>
       </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.6</v>
       </c>
-      <c r="T7" t="n">
-        <v>2</v>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
         <v>3.4</v>
       </c>
-      <c r="X7" t="n">
+      <c r="N7" t="n">
         <v>0.9</v>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>V1</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>P4</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1011,57 +910,48 @@
       <c r="E8" t="n">
         <v>2.2</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
+      <c r="F8" t="n">
         <v>30</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="G8" t="n">
         <v>6.5</v>
       </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.6</v>
       </c>
-      <c r="T8" t="n">
-        <v>2</v>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V8" t="n">
-        <v>1</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
         <v>3.8</v>
       </c>
-      <c r="X8" t="n">
+      <c r="N8" t="n">
         <v>3</v>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>P4</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1079,57 +969,48 @@
       <c r="E9" t="n">
         <v>2.2</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
+      <c r="F9" t="n">
         <v>36</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="G9" t="n">
         <v>6.5</v>
       </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.6</v>
       </c>
-      <c r="T9" t="n">
-        <v>2</v>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V9" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
         <v>4.2</v>
       </c>
-      <c r="X9" t="n">
+      <c r="N9" t="n">
         <v>4</v>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>P4</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1147,57 +1028,48 @@
       <c r="E10" t="n">
         <v>2.3</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
+      <c r="F10" t="n">
         <v>36</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="G10" t="n">
         <v>6.5</v>
       </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2</v>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V10" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
         <v>4.6</v>
       </c>
-      <c r="X10" t="n">
+      <c r="N10" t="n">
         <v>0.11</v>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1215,57 +1087,48 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
+      <c r="F11" t="n">
         <v>46</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="G11" t="n">
         <v>8</v>
       </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.2</v>
       </c>
-      <c r="T11" t="n">
+      <c r="J11" t="n">
         <v>3.5</v>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V11" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" t="n">
-        <v>5</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="n">
         <v>0.13</v>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>V5</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1283,57 +1146,48 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
+      <c r="F12" t="n">
         <v>27.5</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="G12" t="n">
         <v>8</v>
       </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.1</v>
       </c>
-      <c r="T12" t="n">
+      <c r="J12" t="n">
         <v>3.5</v>
       </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V12" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
         <v>5.4</v>
       </c>
-      <c r="X12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y12" t="inlineStr">
+      <c r="N12" t="n">
+        <v>5</v>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>V1</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>P4</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1351,57 +1205,48 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
+      <c r="F13" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="G13" t="n">
         <v>8</v>
       </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.2</v>
       </c>
-      <c r="T13" t="n">
+      <c r="J13" t="n">
         <v>3.5</v>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V13" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
         <v>5.8</v>
       </c>
-      <c r="X13" t="n">
+      <c r="N13" t="n">
         <v>6</v>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>P5</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1419,57 +1264,48 @@
       <c r="E14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
+      <c r="F14" t="n">
         <v>27.7</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="G14" t="n">
         <v>8.1</v>
       </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.12</v>
       </c>
-      <c r="T14" t="n">
-        <v>2</v>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
         <v>6.2</v>
       </c>
-      <c r="X14" t="n">
+      <c r="N14" t="n">
         <v>0.15</v>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1487,57 +1323,48 @@
       <c r="E15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
+      <c r="F15" t="n">
         <v>26.4</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="G15" t="n">
         <v>8.1</v>
       </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.25</v>
       </c>
-      <c r="T15" t="n">
-        <v>2</v>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V15" t="n">
-        <v>1</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
         <v>6.6</v>
       </c>
-      <c r="X15" t="n">
+      <c r="N15" t="n">
         <v>0.17</v>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1555,55 +1382,48 @@
       <c r="E16" t="n">
         <v>2</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
+      <c r="F16" t="n">
         <v>26.7</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="G16" t="n">
         <v>8.1</v>
       </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.3</v>
       </c>
-      <c r="T16" t="n">
-        <v>2</v>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V16" t="n">
-        <v>1</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
         <v>7</v>
       </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr">
+      <c r="N16" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>V5</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1621,45 +1441,48 @@
       <c r="E17" t="n">
         <v>2</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
+      <c r="F17" t="n">
         <v>26</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="G17" t="n">
         <v>8.1</v>
       </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.3</v>
       </c>
-      <c r="T17" t="n">
-        <v>2</v>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V17" t="n">
-        <v>1</v>
-      </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1677,45 +1500,48 @@
       <c r="E18" t="n">
         <v>2</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
+      <c r="F18" t="n">
         <v>24.8</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="G18" t="n">
         <v>8.1</v>
       </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.3</v>
       </c>
-      <c r="T18" t="n">
-        <v>2</v>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V18" t="n">
-        <v>1</v>
-      </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1733,45 +1559,48 @@
       <c r="E19" t="n">
         <v>2</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
+      <c r="F19" t="n">
         <v>35.2</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="G19" t="n">
         <v>8.1</v>
       </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
         <v>0.33</v>
       </c>
-      <c r="T19" t="n">
-        <v>2</v>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V19" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1789,35 +1618,48 @@
       <c r="E20" t="n">
         <v>6.3</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>46</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>V5</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V20" t="n">
-        <v>1</v>
-      </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1835,35 +1677,48 @@
       <c r="E21" t="n">
         <v>2.5</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V21" t="n">
-        <v>1</v>
-      </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1881,35 +1736,48 @@
       <c r="E22" t="n">
         <v>2.3</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V22" t="n">
-        <v>1</v>
-      </c>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1927,35 +1795,48 @@
       <c r="E23" t="n">
         <v>0</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V23" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1973,35 +1854,48 @@
       <c r="E24" t="n">
         <v>1.5</v>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V24" t="n">
-        <v>1</v>
-      </c>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2019,35 +1913,48 @@
       <c r="E25" t="n">
         <v>0</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>V5</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V25" t="n">
-        <v>1</v>
-      </c>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2065,33 +1972,48 @@
       <c r="E26" t="n">
         <v>3</v>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>26</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2109,33 +2031,48 @@
       <c r="E27" t="n">
         <v>0</v>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2153,33 +2090,48 @@
       <c r="E28" t="n">
         <v>1</v>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2197,33 +2149,48 @@
       <c r="E29" t="n">
         <v>1</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>46</v>
+      </c>
+      <c r="G29" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2241,33 +2208,48 @@
       <c r="E30" t="n">
         <v>0</v>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>V5</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2285,33 +2267,48 @@
       <c r="E31" t="n">
         <v>1.5</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2321,7 +2318,7 @@
         <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2329,33 +2326,48 @@
       <c r="E32" t="n">
         <v>0</v>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>V5</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2365,7 +2377,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -2373,33 +2385,48 @@
       <c r="E33" t="n">
         <v>0</v>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2409,7 +2436,7 @@
         <v>4.5</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -2417,33 +2444,48 @@
       <c r="E34" t="n">
         <v>2.1</v>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="G34" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2453,7 +2495,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2461,33 +2503,48 @@
       <c r="E35" t="n">
         <v>0</v>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>26</v>
+      </c>
+      <c r="G35" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2497,7 +2554,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2505,33 +2562,48 @@
       <c r="E36" t="n">
         <v>0</v>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2541,7 +2613,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>2.5</v>
@@ -2549,69 +2621,48 @@
       <c r="E37" t="n">
         <v>3.8</v>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/table_itajai_test_atualizada.xlsx
+++ b/table_itajai_test_atualizada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,35 +535,35 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>canteiro central</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -577,17 +577,17 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>AGN7060D4</t>
+          <t>AGN7026D4</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -595,7 +595,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Itajai 1 - AGN7060D4</t>
+          <t>Itajai 1 - AGN7026D4</t>
         </is>
       </c>
     </row>
@@ -604,10 +604,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -616,27 +616,27 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
@@ -651,19 +651,29 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Itajai 2 - AGN7026D4</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>7.3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -672,30 +682,30 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>26.2</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
         <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>canteiro central</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
@@ -705,7 +715,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -713,16 +723,26 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>AGN7060D4</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Itajai 3 - AGN7060D4</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>26</v>
       </c>
       <c r="B5" t="n">
-        <v>7.3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -731,26 +751,26 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>35.8</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
         <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>bilateral</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -764,24 +784,34 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>AGN7060D4</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Itajai 4 - AGN7060D4</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -790,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>46.5</v>
       </c>
       <c r="G6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
         <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -823,45 +853,55 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>AGN7100D4</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Itajai 5 - AGN7100D4</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>34</v>
       </c>
       <c r="B7" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="G7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
         <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
@@ -882,39 +922,49 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Itajai 6 - AGN7026D4</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
@@ -946,31 +996,41 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Itajai 7 - AGN7080D4</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>51</v>
       </c>
       <c r="B9" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>36</v>
+        <v>40.5</v>
       </c>
       <c r="G9" t="n">
         <v>6.5</v>
@@ -979,10 +1039,10 @@
         <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1000,36 +1060,46 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>AGN7090D4</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Itajai 8 - AGN7090D4</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>59</v>
       </c>
       <c r="B10" t="n">
-        <v>6.8</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n">
         <v>6.5</v>
@@ -1038,10 +1108,10 @@
         <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1064,43 +1134,53 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>NAO ATENDE</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Itajai 9 - NAO ATENDE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>60</v>
       </c>
       <c r="B11" t="n">
-        <v>7.5</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="H11" t="n">
         <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1118,52 +1198,62 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>NAO ATENDE</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Itajai 10 - NAO ATENDE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>68</v>
       </c>
       <c r="B12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>1.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F12" t="n">
-        <v>27.5</v>
+        <v>35</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1177,7 +1267,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1185,44 +1275,54 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Itajai 11 - AGN7026D4</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>69</v>
       </c>
       <c r="B13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F13" t="n">
-        <v>5.5</v>
+        <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
         <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1236,52 +1336,62 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Itajai 12 - AGN7026D4</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>77</v>
       </c>
       <c r="B14" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F14" t="n">
-        <v>27.7</v>
+        <v>69</v>
       </c>
       <c r="G14" t="n">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1300,47 +1410,57 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Itajai 13 - AGN7050D4</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>80</v>
       </c>
       <c r="B15" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F15" t="n">
-        <v>26.4</v>
+        <v>65</v>
       </c>
       <c r="G15" t="n">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
         <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1354,52 +1474,62 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Itajai 14 - AGN7050D4</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>84</v>
       </c>
       <c r="B16" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F16" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="G16" t="n">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
         <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J16" t="n">
         <v>2</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1413,52 +1543,62 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Itajai 15 - AGN7026D4</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>85</v>
       </c>
       <c r="B17" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F17" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
         <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J17" t="n">
         <v>2</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1472,52 +1612,62 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Itajai 16 - AGN7026D4</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>89</v>
       </c>
       <c r="B18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>59</v>
+      </c>
+      <c r="G18" t="n">
         <v>6.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8.1</v>
       </c>
       <c r="H18" t="n">
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J18" t="n">
         <v>2</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1536,47 +1686,57 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>AGN7060D4</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Itajai 17 - AGN7060D4</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>93</v>
       </c>
       <c r="B19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14</v>
+      </c>
+      <c r="G19" t="n">
         <v>6.8</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>8.1</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1590,52 +1750,62 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Itajai 18 - AGN7026D4</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
         <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1649,7 +1819,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1657,44 +1827,54 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Itajai 19 - AGN7026D4</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>99</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>10.5</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>27.5</v>
+        <v>38</v>
       </c>
       <c r="G21" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="H21" t="n">
         <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J21" t="n">
         <v>2</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1708,52 +1888,62 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Itajai 20 - AGN7040D4</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>101</v>
       </c>
       <c r="B22" t="n">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>5.5</v>
+        <v>51</v>
       </c>
       <c r="G22" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="H22" t="n">
         <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1767,7 +1957,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1775,19 +1965,29 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Itajai 21 - AGN7050D4</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>105</v>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>10.05</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1796,23 +1996,23 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="G23" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1834,44 +2034,54 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Itajai 22 - AGN7026D4</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>109</v>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>26.4</v>
+        <v>43</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="H24" t="n">
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1885,7 +2095,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -1902,10 +2112,10 @@
         <v>112</v>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1914,16 +2124,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>26.7</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H25" t="n">
         <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
         <v>2</v>
@@ -1944,7 +2154,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -1961,28 +2171,28 @@
         <v>115</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="H26" t="n">
         <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="J26" t="n">
         <v>2</v>
@@ -1993,7 +2203,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>3.4</v>
@@ -2003,7 +2213,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2020,10 +2230,10 @@
         <v>119</v>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2032,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>24.8</v>
+        <v>35</v>
       </c>
       <c r="G27" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="H27" t="n">
         <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2052,7 +2262,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
@@ -2067,7 +2277,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
@@ -2079,28 +2289,28 @@
         <v>120</v>
       </c>
       <c r="B28" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>35.2</v>
+        <v>40</v>
       </c>
       <c r="G28" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n">
         <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>2</v>
@@ -2121,12 +2331,12 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
@@ -2138,31 +2348,31 @@
         <v>126</v>
       </c>
       <c r="B29" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G29" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="H29" t="n">
         <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2170,7 +2380,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
@@ -2185,7 +2395,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
@@ -2197,10 +2407,10 @@
         <v>128</v>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2209,19 +2419,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>27.5</v>
+        <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="H30" t="n">
         <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2229,7 +2439,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
@@ -2239,12 +2449,12 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
@@ -2256,31 +2466,31 @@
         <v>132</v>
       </c>
       <c r="B31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>5.5</v>
+        <v>35</v>
       </c>
       <c r="G31" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="H31" t="n">
         <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2303,7 +2513,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
@@ -2315,10 +2525,10 @@
         <v>133</v>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2327,19 +2537,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>27.7</v>
+        <v>45</v>
       </c>
       <c r="G32" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="H32" t="n">
         <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2347,7 +2557,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
@@ -2357,12 +2567,12 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
@@ -2374,7 +2584,7 @@
         <v>136</v>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
@@ -2386,16 +2596,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>26.4</v>
+        <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="H33" t="n">
         <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
         <v>2</v>
@@ -2406,7 +2616,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
@@ -2416,7 +2626,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2433,28 +2643,28 @@
         <v>140</v>
       </c>
       <c r="B34" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>26.7</v>
+        <v>40</v>
       </c>
       <c r="G34" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="H34" t="n">
         <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
         <v>2</v>
@@ -2475,12 +2685,12 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
@@ -2492,7 +2702,7 @@
         <v>142</v>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
@@ -2504,16 +2714,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G35" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="H35" t="n">
         <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
         <v>2</v>
@@ -2524,7 +2734,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
@@ -2534,12 +2744,12 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
@@ -2551,7 +2761,7 @@
         <v>144</v>
       </c>
       <c r="B36" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
@@ -2563,19 +2773,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>24.8</v>
+        <v>38</v>
       </c>
       <c r="G36" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="H36" t="n">
         <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="J36" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2583,7 +2793,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
         <v>3.4</v>
@@ -2598,7 +2808,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
@@ -2610,31 +2820,31 @@
         <v>148</v>
       </c>
       <c r="B37" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>35.2</v>
+        <v>44</v>
       </c>
       <c r="G37" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="H37" t="n">
         <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2657,12 +2867,4525 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>25</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>8</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F39" t="n">
+        <v>30</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>12</v>
+      </c>
+      <c r="G40" t="n">
+        <v>7</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>9</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>50</v>
+      </c>
+      <c r="G41" t="n">
+        <v>7</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>45</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>8</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>35</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F44" t="n">
+        <v>32</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>40</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>8</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>39</v>
+      </c>
+      <c r="G49" t="n">
+        <v>8</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>7</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>38</v>
+      </c>
+      <c r="G52" t="n">
+        <v>8</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>19</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>8</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>40</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="n">
+        <v>15</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>30</v>
+      </c>
+      <c r="G55" t="n">
+        <v>7</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="n">
+        <v>9</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>11</v>
+      </c>
+      <c r="G56" t="n">
+        <v>7</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F59" t="n">
+        <v>30</v>
+      </c>
+      <c r="G59" t="n">
+        <v>7</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>7</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>38</v>
+      </c>
+      <c r="G60" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Bilateral frontal</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>7</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F61" t="n">
+        <v>27</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Bilateral frontal</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>7</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F62" t="n">
+        <v>29</v>
+      </c>
+      <c r="G62" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="n">
+        <v>7</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F63" t="n">
+        <v>39</v>
+      </c>
+      <c r="G63" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="n">
+        <v>7</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F64" t="n">
+        <v>36</v>
+      </c>
+      <c r="G64" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>7</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>39</v>
+      </c>
+      <c r="G65" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>7</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>36</v>
+      </c>
+      <c r="G66" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>2</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>7</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>38</v>
+      </c>
+      <c r="G67" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>7</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>38</v>
+      </c>
+      <c r="G68" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F69" t="n">
+        <v>35</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>7</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F70" t="n">
+        <v>6</v>
+      </c>
+      <c r="G70" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>7</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F71" t="n">
+        <v>30</v>
+      </c>
+      <c r="G71" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>7</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F72" t="n">
+        <v>21</v>
+      </c>
+      <c r="G72" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>7</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F73" t="n">
+        <v>38</v>
+      </c>
+      <c r="G73" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>7</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F74" t="n">
+        <v>40</v>
+      </c>
+      <c r="G74" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>7</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>37</v>
+      </c>
+      <c r="G75" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="n">
+        <v>7</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>50</v>
+      </c>
+      <c r="G76" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="n">
+        <v>7</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F77" t="n">
+        <v>40</v>
+      </c>
+      <c r="G77" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="n">
+        <v>6</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5</v>
+      </c>
+      <c r="G78" t="n">
+        <v>7</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="n">
+        <v>9</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>44</v>
+      </c>
+      <c r="G79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="n">
+        <v>9</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>28</v>
+      </c>
+      <c r="G80" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="n">
+        <v>9</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>32</v>
+      </c>
+      <c r="G81" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="n">
+        <v>8</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="n">
+        <v>8</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="n">
+        <v>6</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="n">
+        <v>8</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="n">
+        <v>8</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="n">
+        <v>7</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="n">
+        <v>7</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="n">
+        <v>7</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="n">
+        <v>7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="n">
+        <v>7</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="n">
+        <v>7</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="n">
+        <v>7</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="n">
+        <v>7</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="n">
+        <v>7</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="n">
+        <v>7</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="n">
+        <v>7</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="n">
+        <v>7</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="n">
+        <v>7</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="n">
+        <v>7</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="n">
+        <v>7</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="n">
+        <v>7</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="n">
+        <v>7</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="n">
+        <v>7</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="n">
+        <v>7</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="n">
+        <v>7</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="n">
+        <v>7</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="n">
+        <v>7</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="n">
+        <v>7</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="n">
+        <v>7</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="n">
+        <v>7</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="n">
+        <v>7</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="n">
+        <v>7</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="n">
+        <v>7</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>7</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="n">
+        <v>7</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="n">
+        <v>7</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="n">
+        <v>7</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="n">
+        <v>7</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="n">
+        <v>7</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="n">
+        <v>7</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="n">
+        <v>7</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="n">
+        <v>7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="n">
+        <v>7</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="n">
+        <v>7</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="n">
+        <v>7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="n">
+        <v>7</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" t="n">
+        <v>7</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="n">
+        <v>7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="n">
+        <v>7</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="n">
+        <v>8</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="n">
+        <v>8</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="n">
+        <v>8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="n">
+        <v>8</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="n">
+        <v>7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="n">
+        <v>7</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="n">
+        <v>10</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="n">
+        <v>10</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>10</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="n">
+        <v>8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="n">
+        <v>10</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="n">
+        <v>10</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="n">
+        <v>10</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="n">
+        <v>10</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="n">
+        <v>6</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="n">
+        <v>12</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="n">
+        <v>12</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="n">
+        <v>12</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="n">
+        <v>12</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr"/>
+      <c r="B158" t="n">
+        <v>10</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="n">
+        <v>12</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr"/>
+      <c r="B160" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr"/>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" t="n">
+        <v>7</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr"/>
+      <c r="B163" t="n">
+        <v>8</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" t="n">
+        <v>8</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" t="n">
+        <v>8</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="n">
+        <v>8</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr"/>
+      <c r="B167" t="n">
+        <v>8</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" t="n">
+        <v>8</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr"/>
+      <c r="B169" t="n">
+        <v>7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr"/>
+      <c r="B170" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr"/>
+      <c r="B171" t="n">
+        <v>6</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr"/>
+      <c r="B172" t="n">
+        <v>10</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" t="n">
+        <v>10</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr"/>
+      <c r="B174" t="n">
+        <v>10</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr"/>
+      <c r="B175" t="n">
+        <v>10</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr"/>
+      <c r="B176" t="n">
+        <v>10</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" t="n">
+        <v>10</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr"/>
+      <c r="B178" t="n">
+        <v>10</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr"/>
+      <c r="B179" t="n">
+        <v>10</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="n">
+        <v>10</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr"/>
+      <c r="B181" t="n">
+        <v>10</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" t="n">
+        <v>10</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr"/>
+      <c r="B183" t="n">
+        <v>10</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="n">
+        <v>10</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr"/>
+      <c r="B185" t="n">
+        <v>10</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" t="n">
+        <v>10</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" t="n">
+        <v>10</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr"/>
+      <c r="B188" t="n">
+        <v>10</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr"/>
+      <c r="B189" t="n">
+        <v>10</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr"/>
+      <c r="B190" t="n">
+        <v>10</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr"/>
+      <c r="B191" t="n">
+        <v>10</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" t="n">
+        <v>10</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/table_itajai_test_atualizada.xlsx
+++ b/table_itajai_test_atualizada.xlsx
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12</v>
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -610,10 +610,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>20</v>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -932,7 +932,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>AGN7090D4</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -940,7 +940,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Itajai 6 - AGN7026D4</t>
+          <t>Itajai 6 - AGN7090D4</t>
         </is>
       </c>
     </row>
@@ -1068,19 +1068,9 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>AGN7090D4</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Itajai 8 - AGN7090D4</t>
-        </is>
-      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1137,19 +1127,9 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>NAO ATENDE</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Itajai 9 - NAO ATENDE</t>
-        </is>
-      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1206,19 +1186,9 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>NAO ATENDE</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Itajai 10 - NAO ATENDE</t>
-        </is>
-      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1275,19 +1245,9 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Itajai 11 - AGN7026D4</t>
-        </is>
-      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1344,19 +1304,9 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Itajai 12 - AGN7026D4</t>
-        </is>
-      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1413,19 +1363,9 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>AGN7050D4</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Itajai 13 - AGN7050D4</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1482,19 +1422,9 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>AGN7050D4</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Itajai 14 - AGN7050D4</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1551,19 +1481,9 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Itajai 15 - AGN7026D4</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1620,19 +1540,9 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Itajai 16 - AGN7026D4</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1689,19 +1599,9 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>AGN7060D4</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Itajai 17 - AGN7060D4</t>
-        </is>
-      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1758,19 +1658,9 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Itajai 18 - AGN7026D4</t>
-        </is>
-      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1827,19 +1717,9 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Itajai 19 - AGN7026D4</t>
-        </is>
-      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1896,19 +1776,9 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>AGN7040D4</t>
-        </is>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Itajai 20 - AGN7040D4</t>
-        </is>
-      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1965,19 +1835,9 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>AGN7050D4</t>
-        </is>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Itajai 21 - AGN7050D4</t>
-        </is>
-      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2034,19 +1894,9 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Itajai 22 - AGN7026D4</t>
-        </is>
-      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">

--- a/table_itajai_test_atualizada.xlsx
+++ b/table_itajai_test_atualizada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S192"/>
+  <dimension ref="A1:S208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>12</v>
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -569,12 +569,8 @@
       <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
           <t>V2</t>
@@ -610,10 +606,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
@@ -638,12 +634,8 @@
       <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
           <t>V2</t>
@@ -682,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>20</v>
@@ -707,12 +699,8 @@
       <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
           <t>V2</t>
@@ -748,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -776,12 +764,8 @@
       <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2</v>
-      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
           <t>V2</t>
@@ -845,12 +829,8 @@
       <c r="L6" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.7</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
           <t>V2</t>
@@ -914,12 +894,8 @@
       <c r="L7" t="n">
         <v>1</v>
       </c>
-      <c r="M7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.9</v>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
           <t>V2</t>
@@ -930,19 +906,9 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>AGN7090D4</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Itajai 6 - AGN7090D4</t>
-        </is>
-      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -983,12 +949,8 @@
       <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3</v>
-      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
           <t>V2</t>
@@ -999,19 +961,9 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Itajai 7 - AGN7080D4</t>
-        </is>
-      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1052,12 +1004,8 @@
       <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4</v>
-      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
           <t>V2</t>
@@ -1111,12 +1059,8 @@
       <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.11</v>
-      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
           <t>V4</t>
@@ -1170,12 +1114,8 @@
       <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.13</v>
-      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
           <t>V4</t>
@@ -1229,12 +1169,8 @@
       <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5</v>
-      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
           <t>V3</t>
@@ -1288,12 +1224,8 @@
       <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="M13" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6</v>
-      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
           <t>V3</t>
@@ -1347,12 +1279,8 @@
       <c r="L14" t="n">
         <v>1</v>
       </c>
-      <c r="M14" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
           <t>V3</t>
@@ -1406,12 +1334,8 @@
       <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="M15" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.17</v>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
           <t>V3</t>
@@ -1465,12 +1389,8 @@
       <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="M16" t="n">
-        <v>7</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.11</v>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
           <t>V3</t>
@@ -1524,12 +1444,8 @@
       <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.13</v>
-      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
           <t>V3</t>
@@ -1583,12 +1499,8 @@
       <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5</v>
-      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
           <t>V3</t>
@@ -1642,12 +1554,8 @@
       <c r="L19" t="n">
         <v>1</v>
       </c>
-      <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6</v>
-      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
           <t>V3</t>
@@ -1701,12 +1609,8 @@
       <c r="L20" t="n">
         <v>1</v>
       </c>
-      <c r="M20" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
           <t>V3</t>
@@ -1760,12 +1664,8 @@
       <c r="L21" t="n">
         <v>1</v>
       </c>
-      <c r="M21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.17</v>
-      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
           <t>V3</t>
@@ -1819,12 +1719,8 @@
       <c r="L22" t="n">
         <v>1</v>
       </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
           <t>V3</t>
@@ -1878,12 +1774,8 @@
       <c r="L23" t="n">
         <v>1</v>
       </c>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
           <t>V3</t>
@@ -1937,12 +1829,8 @@
       <c r="L24" t="n">
         <v>1</v>
       </c>
-      <c r="M24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1</v>
-      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
           <t>V3</t>
@@ -1996,12 +1884,8 @@
       <c r="L25" t="n">
         <v>1</v>
       </c>
-      <c r="M25" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2</v>
-      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
           <t>V2</t>
@@ -2055,12 +1939,8 @@
       <c r="L26" t="n">
         <v>1</v>
       </c>
-      <c r="M26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.7</v>
-      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
           <t>V2</t>
@@ -2114,12 +1994,8 @@
       <c r="L27" t="n">
         <v>1</v>
       </c>
-      <c r="M27" t="n">
-        <v>2</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.9</v>
-      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
           <t>V2</t>
@@ -2173,12 +2049,8 @@
       <c r="L28" t="n">
         <v>1</v>
       </c>
-      <c r="M28" t="n">
-        <v>3</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3</v>
-      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
           <t>V4</t>
@@ -2232,12 +2104,8 @@
       <c r="L29" t="n">
         <v>1</v>
       </c>
-      <c r="M29" t="n">
-        <v>2</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4</v>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
           <t>V4</t>
@@ -2291,12 +2159,8 @@
       <c r="L30" t="n">
         <v>1</v>
       </c>
-      <c r="M30" t="n">
-        <v>3</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.11</v>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
           <t>V4</t>
@@ -2350,12 +2214,8 @@
       <c r="L31" t="n">
         <v>1</v>
       </c>
-      <c r="M31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.13</v>
-      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
           <t>V4</t>
@@ -2409,12 +2269,8 @@
       <c r="L32" t="n">
         <v>1</v>
       </c>
-      <c r="M32" t="n">
-        <v>2</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5</v>
-      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
           <t>V4</t>
@@ -2468,12 +2324,8 @@
       <c r="L33" t="n">
         <v>1</v>
       </c>
-      <c r="M33" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" t="n">
-        <v>6</v>
-      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
           <t>V4</t>
@@ -2527,12 +2379,8 @@
       <c r="L34" t="n">
         <v>1</v>
       </c>
-      <c r="M34" t="n">
-        <v>2</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
           <t>V4</t>
@@ -2586,12 +2434,8 @@
       <c r="L35" t="n">
         <v>1</v>
       </c>
-      <c r="M35" t="n">
-        <v>3</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.17</v>
-      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
           <t>V4</t>
@@ -2645,12 +2489,8 @@
       <c r="L36" t="n">
         <v>1</v>
       </c>
-      <c r="M36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.11</v>
-      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
           <t>V4</t>
@@ -2704,12 +2544,8 @@
       <c r="L37" t="n">
         <v>1</v>
       </c>
-      <c r="M37" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.13</v>
-      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
           <t>V4</t>
@@ -3298,8 +3134,16 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
@@ -3339,8 +3183,16 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
@@ -3380,8 +3232,16 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
@@ -3421,8 +3281,16 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
@@ -3462,8 +3330,16 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
@@ -3503,8 +3379,16 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
@@ -3544,8 +3428,16 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
@@ -3585,8 +3477,16 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
@@ -3626,8 +3526,16 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
@@ -3667,8 +3575,16 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
@@ -3708,8 +3624,16 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
@@ -3749,8 +3673,16 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
@@ -3790,8 +3722,16 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
@@ -3823,12 +3763,24 @@
       <c r="J62" t="n">
         <v>2</v>
       </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Bilateral frontal</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
@@ -3860,12 +3812,24 @@
       <c r="J63" t="n">
         <v>2</v>
       </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Bilateral frontal</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
@@ -3897,12 +3861,24 @@
       <c r="J64" t="n">
         <v>2</v>
       </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Bilateral frontal</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
@@ -3934,12 +3910,24 @@
       <c r="J65" t="n">
         <v>2</v>
       </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Bilateral frontal</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
@@ -3965,16 +3953,30 @@
         <v>7.8</v>
       </c>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>1.5</v>
+      </c>
       <c r="J66" t="n">
         <v>2</v>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Bilateral frontal</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
@@ -4000,14 +4002,30 @@
         <v>7.8</v>
       </c>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Bilateral frontal</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
@@ -4033,14 +4051,30 @@
         <v>7.8</v>
       </c>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Bilateral frontal</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
@@ -4066,14 +4100,30 @@
         <v>7.8</v>
       </c>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Bilateral frontal</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
@@ -4099,14 +4149,30 @@
         <v>7.8</v>
       </c>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Bilateral frontal</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
@@ -4132,14 +4198,30 @@
         <v>7.8</v>
       </c>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Bilateral frontal</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
@@ -4165,14 +4247,30 @@
         <v>7.8</v>
       </c>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Bilateral frontal</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
@@ -4198,14 +4296,30 @@
         <v>7.8</v>
       </c>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
@@ -4231,14 +4345,30 @@
         <v>7.8</v>
       </c>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Bilateral frontal</t>
+        </is>
+      </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
@@ -4264,14 +4394,30 @@
         <v>7.8</v>
       </c>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
@@ -4297,14 +4443,30 @@
         <v>7.8</v>
       </c>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
@@ -4330,14 +4492,30 @@
         <v>7.8</v>
       </c>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
@@ -4363,14 +4541,30 @@
         <v>7</v>
       </c>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
@@ -4381,10 +4575,14 @@
         <v>9</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
       <c r="F79" t="n">
         <v>44</v>
       </c>
@@ -4392,14 +4590,30 @@
         <v>6.5</v>
       </c>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
@@ -4410,10 +4624,14 @@
         <v>9</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
       <c r="F80" t="n">
         <v>28</v>
       </c>
@@ -4421,14 +4639,30 @@
         <v>6.5</v>
       </c>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
@@ -4439,10 +4673,14 @@
         <v>9</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
       <c r="F81" t="n">
         <v>32</v>
       </c>
@@ -4450,14 +4688,30 @@
         <v>6.5</v>
       </c>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
@@ -4468,21 +4722,45 @@
         <v>10.5</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F82" t="n">
+        <v>29</v>
+      </c>
+      <c r="G82" t="n">
+        <v>7.5</v>
+      </c>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
@@ -4493,21 +4771,45 @@
         <v>10.5</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F83" t="n">
+        <v>37</v>
+      </c>
+      <c r="G83" t="n">
+        <v>7.5</v>
+      </c>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
@@ -4518,21 +4820,45 @@
         <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3</v>
+      </c>
+      <c r="F84" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="G84" t="n">
+        <v>8</v>
+      </c>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
@@ -4543,21 +4869,45 @@
         <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G85" t="n">
+        <v>8</v>
+      </c>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
@@ -4568,21 +4918,45 @@
         <v>6</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>36</v>
+      </c>
+      <c r="G86" t="n">
+        <v>8</v>
+      </c>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
@@ -4593,21 +4967,45 @@
         <v>8</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3</v>
+      </c>
+      <c r="F87" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="G87" t="n">
+        <v>8</v>
+      </c>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
@@ -4618,21 +5016,45 @@
         <v>8</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3</v>
+      </c>
+      <c r="F88" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="G88" t="n">
+        <v>8</v>
+      </c>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
@@ -4643,21 +5065,45 @@
         <v>7</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F89" t="n">
+        <v>40</v>
+      </c>
+      <c r="G89" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
@@ -4668,21 +5114,45 @@
         <v>7</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F90" t="n">
+        <v>30</v>
+      </c>
+      <c r="G90" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
@@ -4693,21 +5163,45 @@
         <v>7</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F91" t="n">
+        <v>40</v>
+      </c>
+      <c r="G91" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
@@ -4718,21 +5212,45 @@
         <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F92" t="n">
+        <v>40</v>
+      </c>
+      <c r="G92" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
@@ -4743,21 +5261,45 @@
         <v>7</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F93" t="n">
+        <v>40</v>
+      </c>
+      <c r="G93" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
@@ -4768,21 +5310,45 @@
         <v>7</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F94" t="n">
+        <v>42</v>
+      </c>
+      <c r="G94" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
@@ -4793,21 +5359,45 @@
         <v>7</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F95" t="n">
+        <v>42</v>
+      </c>
+      <c r="G95" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
@@ -4818,21 +5408,45 @@
         <v>7</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F96" t="n">
+        <v>34</v>
+      </c>
+      <c r="G96" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
@@ -4843,21 +5457,45 @@
         <v>7</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>34</v>
+      </c>
+      <c r="G97" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
@@ -4868,21 +5506,45 @@
         <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F98" t="n">
+        <v>39</v>
+      </c>
+      <c r="G98" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
@@ -4893,21 +5555,45 @@
         <v>7</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>40</v>
+      </c>
+      <c r="G99" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
@@ -4918,21 +5604,45 @@
         <v>7</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F100" t="n">
+        <v>40</v>
+      </c>
+      <c r="G100" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
@@ -4943,21 +5653,45 @@
         <v>7</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F101" t="n">
+        <v>39</v>
+      </c>
+      <c r="G101" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -4968,21 +5702,45 @@
         <v>7</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F102" t="n">
+        <v>22</v>
+      </c>
+      <c r="G102" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr"/>
@@ -4993,21 +5751,45 @@
         <v>7</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="G103" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr"/>
@@ -5018,21 +5800,45 @@
         <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F104" t="n">
+        <v>38</v>
+      </c>
+      <c r="G104" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
@@ -5043,21 +5849,45 @@
         <v>7</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F105" t="n">
+        <v>36</v>
+      </c>
+      <c r="G105" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr"/>
@@ -5068,21 +5898,45 @@
         <v>7</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F106" t="n">
+        <v>40</v>
+      </c>
+      <c r="G106" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr"/>
@@ -5093,21 +5947,45 @@
         <v>7</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F107" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G107" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
@@ -5118,21 +5996,45 @@
         <v>7</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F108" t="n">
+        <v>13</v>
+      </c>
+      <c r="G108" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr"/>
@@ -5143,21 +6045,45 @@
         <v>7</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>32</v>
+      </c>
+      <c r="G109" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr"/>
@@ -5168,21 +6094,45 @@
         <v>7</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F110" t="n">
+        <v>13</v>
+      </c>
+      <c r="G110" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr"/>
       <c r="S110" t="inlineStr"/>
@@ -5193,21 +6143,45 @@
         <v>7</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F111" t="n">
+        <v>19</v>
+      </c>
+      <c r="G111" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
       <c r="S111" t="inlineStr"/>
@@ -5218,21 +6192,45 @@
         <v>7</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>32</v>
+      </c>
+      <c r="G112" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr"/>
       <c r="S112" t="inlineStr"/>
@@ -5243,21 +6241,45 @@
         <v>7</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F113" t="n">
+        <v>32</v>
+      </c>
+      <c r="G113" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr"/>
@@ -5268,21 +6290,45 @@
         <v>7</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>35</v>
+      </c>
+      <c r="G114" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr"/>
@@ -5293,21 +6339,45 @@
         <v>7</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F115" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="G115" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr"/>
@@ -5318,21 +6388,45 @@
         <v>7</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F116" t="n">
+        <v>34</v>
+      </c>
+      <c r="G116" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="inlineStr"/>
@@ -5343,21 +6437,45 @@
         <v>7</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F117" t="n">
+        <v>38</v>
+      </c>
+      <c r="G117" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr"/>
@@ -5368,21 +6486,45 @@
         <v>7</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F118" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="G118" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr"/>
@@ -5393,21 +6535,45 @@
         <v>7</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F119" t="n">
+        <v>38</v>
+      </c>
+      <c r="G119" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr"/>
       <c r="S119" t="inlineStr"/>
@@ -5418,21 +6584,45 @@
         <v>7</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
-      </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F120" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="G120" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
       <c r="S120" t="inlineStr"/>
@@ -5443,21 +6633,45 @@
         <v>7</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
-      </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F121" t="n">
+        <v>42</v>
+      </c>
+      <c r="G121" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
       <c r="S121" t="inlineStr"/>
@@ -5468,21 +6682,45 @@
         <v>7</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
-      </c>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>31</v>
+      </c>
+      <c r="G122" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="inlineStr"/>
@@ -5493,21 +6731,45 @@
         <v>7</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>24</v>
+      </c>
+      <c r="G123" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr"/>
       <c r="S123" t="inlineStr"/>
@@ -5518,21 +6780,45 @@
         <v>7</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
-      </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>20</v>
+      </c>
+      <c r="G124" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
       <c r="S124" t="inlineStr"/>
@@ -5543,21 +6829,45 @@
         <v>7</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
-      </c>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>32</v>
+      </c>
+      <c r="G125" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
       <c r="S125" t="inlineStr"/>
@@ -5568,21 +6878,45 @@
         <v>7</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>42</v>
+      </c>
+      <c r="G126" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
       <c r="S126" t="inlineStr"/>
@@ -5593,21 +6927,45 @@
         <v>7</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F127" t="n">
+        <v>31</v>
+      </c>
+      <c r="G127" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
       <c r="S127" t="inlineStr"/>
@@ -5618,21 +6976,45 @@
         <v>7</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>33</v>
+      </c>
+      <c r="G128" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
       <c r="S128" t="inlineStr"/>
@@ -5643,21 +7025,45 @@
         <v>7</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
-      </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>36</v>
+      </c>
+      <c r="G129" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr"/>
@@ -5668,21 +7074,45 @@
         <v>7</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
-      </c>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G130" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="inlineStr"/>
@@ -5693,21 +7123,45 @@
         <v>7</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
-      </c>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G131" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
       <c r="S131" t="inlineStr"/>
@@ -5718,21 +7172,45 @@
         <v>7</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
-      </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="G132" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
       <c r="S132" t="inlineStr"/>
@@ -5743,21 +7221,45 @@
         <v>8</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
-      </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F133" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="G133" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
       <c r="S133" t="inlineStr"/>
@@ -5768,21 +7270,45 @@
         <v>8</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
-      </c>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F134" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="G134" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
       <c r="S134" t="inlineStr"/>
@@ -5793,21 +7319,45 @@
         <v>8</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
-      </c>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
       <c r="S135" t="inlineStr"/>
@@ -5818,21 +7368,45 @@
         <v>8</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
-      </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>38</v>
+      </c>
+      <c r="G136" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
       <c r="S136" t="inlineStr"/>
@@ -5843,21 +7417,45 @@
         <v>7</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
-      </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>43</v>
+      </c>
+      <c r="G137" t="n">
+        <v>8</v>
+      </c>
       <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
       <c r="S137" t="inlineStr"/>
@@ -5868,21 +7466,45 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
-      </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2</v>
+      </c>
+      <c r="F138" t="n">
+        <v>24</v>
+      </c>
+      <c r="G138" t="n">
+        <v>9</v>
+      </c>
       <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J138" t="n">
+        <v>3</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr"/>
       <c r="S138" t="inlineStr"/>
@@ -5893,21 +7515,45 @@
         <v>6.3</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
-      </c>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="G139" t="n">
+        <v>7.7</v>
+      </c>
       <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>3</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr"/>
       <c r="S139" t="inlineStr"/>
@@ -5918,21 +7564,45 @@
         <v>7</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
-      </c>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>40</v>
+      </c>
+      <c r="G140" t="n">
+        <v>7.2</v>
+      </c>
       <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
       <c r="S140" t="inlineStr"/>
@@ -5943,21 +7613,45 @@
         <v>10</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3</v>
+      </c>
+      <c r="F141" t="n">
+        <v>10</v>
+      </c>
+      <c r="G141" t="n">
+        <v>8</v>
+      </c>
       <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J141" t="n">
+        <v>3</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
       <c r="S141" t="inlineStr"/>
@@ -5968,21 +7662,45 @@
         <v>5.5</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
-      </c>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5</v>
+      </c>
+      <c r="G142" t="n">
+        <v>7.5</v>
+      </c>
       <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Bilateral alternada</t>
+        </is>
+      </c>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
       <c r="S142" t="inlineStr"/>
@@ -5993,21 +7711,45 @@
         <v>10</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
-      </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="G143" t="n">
+        <v>7</v>
+      </c>
       <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="inlineStr"/>
@@ -6018,21 +7760,45 @@
         <v>10</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
-      </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="G144" t="n">
+        <v>7</v>
+      </c>
       <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
       <c r="S144" t="inlineStr"/>
@@ -6043,21 +7809,45 @@
         <v>11.5</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
-      </c>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2</v>
+      </c>
+      <c r="F145" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G145" t="n">
+        <v>7.5</v>
+      </c>
       <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="inlineStr"/>
@@ -6068,21 +7858,45 @@
         <v>8</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
-      </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>4</v>
+      </c>
+      <c r="J146" t="n">
+        <v>3</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
       <c r="S146" t="inlineStr"/>
@@ -6093,21 +7907,45 @@
         <v>10</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
-      </c>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="G147" t="n">
+        <v>8</v>
+      </c>
       <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>3</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
       <c r="S147" t="inlineStr"/>
@@ -6118,21 +7956,45 @@
         <v>10</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
-      </c>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="G148" t="n">
+        <v>7.5</v>
+      </c>
       <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J148" t="n">
+        <v>3</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
       <c r="S148" t="inlineStr"/>
@@ -6143,21 +8005,45 @@
         <v>10</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
-      </c>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G149" t="n">
+        <v>8</v>
+      </c>
       <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J149" t="n">
+        <v>3</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr"/>
       <c r="S149" t="inlineStr"/>
@@ -6168,21 +8054,45 @@
         <v>10</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
-      </c>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>30</v>
+      </c>
+      <c r="G150" t="n">
+        <v>8</v>
+      </c>
       <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J150" t="n">
+        <v>3</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
       <c r="S150" t="inlineStr"/>
@@ -6193,21 +8103,45 @@
         <v>6</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
-      </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>40</v>
+      </c>
+      <c r="G151" t="n">
+        <v>8</v>
+      </c>
       <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>3</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
       <c r="S151" t="inlineStr"/>
@@ -6218,21 +8152,45 @@
         <v>12</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
-      </c>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>42</v>
+      </c>
+      <c r="G152" t="n">
+        <v>6.5</v>
+      </c>
       <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr"/>
       <c r="S152" t="inlineStr"/>
@@ -6243,21 +8201,45 @@
         <v>12</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
-      </c>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>31</v>
+      </c>
+      <c r="G153" t="n">
+        <v>6.5</v>
+      </c>
       <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="inlineStr"/>
       <c r="S153" t="inlineStr"/>
@@ -6268,21 +8250,45 @@
         <v>12</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
-      </c>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>37</v>
+      </c>
+      <c r="G154" t="n">
+        <v>6.5</v>
+      </c>
       <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="inlineStr"/>
       <c r="S154" t="inlineStr"/>
@@ -6293,21 +8299,45 @@
         <v>12</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
-      </c>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F155" t="n">
+        <v>50</v>
+      </c>
+      <c r="G155" t="n">
+        <v>8</v>
+      </c>
       <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J155" t="n">
+        <v>3</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr"/>
       <c r="S155" t="inlineStr"/>
@@ -6318,21 +8348,45 @@
         <v>11.5</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
-      </c>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>34</v>
+      </c>
+      <c r="G156" t="n">
+        <v>7.5</v>
+      </c>
       <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>2</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="inlineStr"/>
@@ -6343,21 +8397,45 @@
         <v>11.5</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
-      </c>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>31</v>
+      </c>
+      <c r="G157" t="n">
+        <v>7.5</v>
+      </c>
       <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>2</v>
+      </c>
+      <c r="J157" t="n">
+        <v>2</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="inlineStr"/>
@@ -6368,21 +8446,45 @@
         <v>10</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
-      </c>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>6</v>
+      </c>
+      <c r="G158" t="n">
+        <v>7</v>
+      </c>
       <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr"/>
       <c r="S158" t="inlineStr"/>
@@ -6393,21 +8495,45 @@
         <v>12</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
-      </c>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G159" t="n">
+        <v>8</v>
+      </c>
       <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>3</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr"/>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
@@ -6418,21 +8544,45 @@
         <v>10.7</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F160" t="n">
+        <v>43</v>
+      </c>
+      <c r="G160" t="n">
+        <v>7</v>
+      </c>
       <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J160" t="n">
+        <v>2</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="inlineStr"/>
@@ -6443,21 +8593,45 @@
         <v>3</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
-      </c>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>22</v>
+      </c>
+      <c r="G161" t="n">
+        <v>7</v>
+      </c>
       <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J161" t="n">
+        <v>3</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr"/>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
       <c r="S161" t="inlineStr"/>
@@ -6468,21 +8642,45 @@
         <v>7</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4</v>
+      </c>
+      <c r="F162" t="n">
+        <v>40</v>
+      </c>
+      <c r="G162" t="n">
+        <v>7</v>
+      </c>
       <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>2</v>
+      </c>
+      <c r="J162" t="n">
+        <v>3</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr"/>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q162" t="inlineStr"/>
       <c r="R162" t="inlineStr"/>
       <c r="S162" t="inlineStr"/>
@@ -6493,21 +8691,45 @@
         <v>8</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
-      </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="G163" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="inlineStr"/>
       <c r="S163" t="inlineStr"/>
@@ -6518,21 +8740,45 @@
         <v>8</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
-      </c>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="G164" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="inlineStr"/>
@@ -6543,21 +8789,45 @@
         <v>8</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="G165" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr"/>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="inlineStr"/>
@@ -6568,21 +8838,45 @@
         <v>8</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>42</v>
+      </c>
+      <c r="G166" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J166" t="n">
+        <v>2</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr"/>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr"/>
       <c r="S166" t="inlineStr"/>
@@ -6593,21 +8887,45 @@
         <v>8</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
-      </c>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F167" t="n">
+        <v>30</v>
+      </c>
+      <c r="G167" t="n">
+        <v>7</v>
+      </c>
       <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J167" t="n">
+        <v>2</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q167" t="inlineStr"/>
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="inlineStr"/>
@@ -6618,21 +8936,45 @@
         <v>8</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F168" t="n">
+        <v>40</v>
+      </c>
+      <c r="G168" t="n">
+        <v>7</v>
+      </c>
       <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>3</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr"/>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="inlineStr"/>
@@ -6643,21 +8985,45 @@
         <v>7</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
-      </c>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="G169" t="n">
+        <v>7</v>
+      </c>
       <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="inlineStr"/>
@@ -6668,21 +9034,45 @@
         <v>5.5</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
-      </c>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>36</v>
+      </c>
+      <c r="G170" t="n">
+        <v>7</v>
+      </c>
       <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="inlineStr"/>
@@ -6693,21 +9083,45 @@
         <v>6</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
-      </c>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>40</v>
+      </c>
+      <c r="G171" t="n">
+        <v>7</v>
+      </c>
       <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>5</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
       <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="inlineStr"/>
@@ -6718,21 +9132,45 @@
         <v>10</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
-      </c>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>35</v>
+      </c>
+      <c r="G172" t="n">
+        <v>7</v>
+      </c>
       <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr"/>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q172" t="inlineStr"/>
       <c r="R172" t="inlineStr"/>
       <c r="S172" t="inlineStr"/>
@@ -6743,21 +9181,45 @@
         <v>10</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
-      </c>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>35</v>
+      </c>
+      <c r="G173" t="n">
+        <v>7</v>
+      </c>
       <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="inlineStr"/>
@@ -6768,21 +9230,45 @@
         <v>10</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
-      </c>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>35</v>
+      </c>
+      <c r="G174" t="n">
+        <v>7</v>
+      </c>
       <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr"/>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q174" t="inlineStr"/>
       <c r="R174" t="inlineStr"/>
       <c r="S174" t="inlineStr"/>
@@ -6793,21 +9279,45 @@
         <v>10</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
-      </c>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>35</v>
+      </c>
+      <c r="G175" t="n">
+        <v>7</v>
+      </c>
       <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr"/>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q175" t="inlineStr"/>
       <c r="R175" t="inlineStr"/>
       <c r="S175" t="inlineStr"/>
@@ -6818,21 +9328,45 @@
         <v>10</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
-      </c>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>35</v>
+      </c>
+      <c r="G176" t="n">
+        <v>7</v>
+      </c>
       <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J176" t="n">
+        <v>2</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr"/>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr"/>
       <c r="S176" t="inlineStr"/>
@@ -6843,21 +9377,45 @@
         <v>10</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
-      </c>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>35</v>
+      </c>
+      <c r="G177" t="n">
+        <v>7</v>
+      </c>
       <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J177" t="n">
+        <v>2</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr"/>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q177" t="inlineStr"/>
       <c r="R177" t="inlineStr"/>
       <c r="S177" t="inlineStr"/>
@@ -6868,21 +9426,45 @@
         <v>10</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
-      </c>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>35</v>
+      </c>
+      <c r="G178" t="n">
+        <v>7</v>
+      </c>
       <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J178" t="n">
+        <v>2</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr"/>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q178" t="inlineStr"/>
       <c r="R178" t="inlineStr"/>
       <c r="S178" t="inlineStr"/>
@@ -6893,21 +9475,45 @@
         <v>10</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
-      </c>
-      <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>35</v>
+      </c>
+      <c r="G179" t="n">
+        <v>7</v>
+      </c>
       <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J179" t="n">
+        <v>2</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr"/>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q179" t="inlineStr"/>
       <c r="R179" t="inlineStr"/>
       <c r="S179" t="inlineStr"/>
@@ -6918,21 +9524,45 @@
         <v>10</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
-      </c>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>35</v>
+      </c>
+      <c r="G180" t="n">
+        <v>7</v>
+      </c>
       <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J180" t="n">
+        <v>2</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="inlineStr"/>
@@ -6943,21 +9573,45 @@
         <v>10</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
-      </c>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>35</v>
+      </c>
+      <c r="G181" t="n">
+        <v>7</v>
+      </c>
       <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J181" t="n">
+        <v>2</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
@@ -6968,21 +9622,45 @@
         <v>10</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
-      </c>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>35</v>
+      </c>
+      <c r="G182" t="n">
+        <v>7</v>
+      </c>
       <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J182" t="n">
+        <v>2</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
@@ -6993,21 +9671,45 @@
         <v>10</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
-      </c>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F183" t="n">
+        <v>35</v>
+      </c>
+      <c r="G183" t="n">
+        <v>7</v>
+      </c>
       <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J183" t="n">
+        <v>2</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="inlineStr"/>
       <c r="S183" t="inlineStr"/>
@@ -7018,21 +9720,45 @@
         <v>10</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
-      </c>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F184" t="n">
+        <v>35</v>
+      </c>
+      <c r="G184" t="n">
+        <v>7</v>
+      </c>
       <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J184" t="n">
+        <v>2</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr"/>
@@ -7043,21 +9769,45 @@
         <v>10</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F185" t="n">
+        <v>35</v>
+      </c>
+      <c r="G185" t="n">
+        <v>7</v>
+      </c>
       <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J185" t="n">
+        <v>2</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="inlineStr"/>
       <c r="S185" t="inlineStr"/>
@@ -7068,21 +9818,45 @@
         <v>10</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
-      </c>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>35</v>
+      </c>
+      <c r="G186" t="n">
+        <v>7</v>
+      </c>
       <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J186" t="n">
+        <v>2</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr"/>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="inlineStr"/>
       <c r="S186" t="inlineStr"/>
@@ -7093,21 +9867,45 @@
         <v>10</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
-      </c>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F187" t="n">
+        <v>35</v>
+      </c>
+      <c r="G187" t="n">
+        <v>7</v>
+      </c>
       <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J187" t="n">
+        <v>2</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q187" t="inlineStr"/>
       <c r="R187" t="inlineStr"/>
       <c r="S187" t="inlineStr"/>
@@ -7118,21 +9916,45 @@
         <v>10</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
-      </c>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>35</v>
+      </c>
+      <c r="G188" t="n">
+        <v>7</v>
+      </c>
       <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J188" t="n">
+        <v>2</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr"/>
       <c r="S188" t="inlineStr"/>
@@ -7143,21 +9965,45 @@
         <v>10</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
-      </c>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>35</v>
+      </c>
+      <c r="G189" t="n">
+        <v>7</v>
+      </c>
       <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>2</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr"/>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q189" t="inlineStr"/>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
@@ -7168,21 +10014,45 @@
         <v>10</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
-      </c>
-      <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>35</v>
+      </c>
+      <c r="G190" t="n">
+        <v>7</v>
+      </c>
       <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>2</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr"/>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="inlineStr"/>
       <c r="S190" t="inlineStr"/>
@@ -7193,21 +10063,45 @@
         <v>10</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
-      </c>
-      <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>35</v>
+      </c>
+      <c r="G191" t="n">
+        <v>7</v>
+      </c>
       <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>2</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr"/>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="inlineStr"/>
       <c r="S191" t="inlineStr"/>
@@ -7218,24 +10112,832 @@
         <v>10</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
-      </c>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>35</v>
+      </c>
+      <c r="G192" t="n">
+        <v>7</v>
+      </c>
       <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>2</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr"/>
+      <c r="B193" t="n">
+        <v>10</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>35</v>
+      </c>
+      <c r="G193" t="n">
+        <v>7</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>2</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr"/>
+      <c r="B194" t="n">
+        <v>10</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>35</v>
+      </c>
+      <c r="G194" t="n">
+        <v>7</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>2</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" t="n">
+        <v>10</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>35</v>
+      </c>
+      <c r="G195" t="n">
+        <v>7</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>2</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr"/>
+      <c r="B196" t="n">
+        <v>10</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>35</v>
+      </c>
+      <c r="G196" t="n">
+        <v>7</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>2</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr"/>
+      <c r="B197" t="n">
+        <v>10</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>35</v>
+      </c>
+      <c r="G197" t="n">
+        <v>7</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>2</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr"/>
+      <c r="B198" t="n">
+        <v>10</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>35</v>
+      </c>
+      <c r="G198" t="n">
+        <v>7</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>2</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr"/>
+      <c r="B199" t="n">
+        <v>10</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>35</v>
+      </c>
+      <c r="G199" t="n">
+        <v>7</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>2</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q199" t="inlineStr"/>
+      <c r="R199" t="inlineStr"/>
+      <c r="S199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr"/>
+      <c r="B200" t="n">
+        <v>10</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>35</v>
+      </c>
+      <c r="G200" t="n">
+        <v>7</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J200" t="n">
+        <v>2</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr"/>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr"/>
+      <c r="R200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr"/>
+      <c r="B201" t="n">
+        <v>10</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F201" t="n">
+        <v>35</v>
+      </c>
+      <c r="G201" t="n">
+        <v>7</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J201" t="n">
+        <v>2</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q201" t="inlineStr"/>
+      <c r="R201" t="inlineStr"/>
+      <c r="S201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr"/>
+      <c r="B202" t="n">
+        <v>10</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F202" t="n">
+        <v>35</v>
+      </c>
+      <c r="G202" t="n">
+        <v>7</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J202" t="n">
+        <v>2</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="inlineStr"/>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr"/>
+      <c r="R202" t="inlineStr"/>
+      <c r="S202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr"/>
+      <c r="B203" t="n">
+        <v>10</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F203" t="n">
+        <v>35</v>
+      </c>
+      <c r="G203" t="n">
+        <v>7</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J203" t="n">
+        <v>2</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q203" t="inlineStr"/>
+      <c r="R203" t="inlineStr"/>
+      <c r="S203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr"/>
+      <c r="B204" t="n">
+        <v>10</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F204" t="n">
+        <v>35</v>
+      </c>
+      <c r="G204" t="n">
+        <v>7</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J204" t="n">
+        <v>2</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr"/>
+      <c r="R204" t="inlineStr"/>
+      <c r="S204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr"/>
+      <c r="B205" t="n">
+        <v>10</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>35</v>
+      </c>
+      <c r="G205" t="n">
+        <v>7</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J205" t="n">
+        <v>2</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="inlineStr"/>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr"/>
+      <c r="R205" t="inlineStr"/>
+      <c r="S205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr"/>
+      <c r="B206" t="n">
+        <v>10</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F206" t="n">
+        <v>35</v>
+      </c>
+      <c r="G206" t="n">
+        <v>7</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J206" t="n">
+        <v>2</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="inlineStr"/>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr"/>
+      <c r="B207" t="n">
+        <v>10</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F207" t="n">
+        <v>35</v>
+      </c>
+      <c r="G207" t="n">
+        <v>7</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J207" t="n">
+        <v>2</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr"/>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr"/>
+      <c r="S207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr"/>
+      <c r="B208" t="n">
+        <v>10</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F208" t="n">
+        <v>10</v>
+      </c>
+      <c r="G208" t="n">
+        <v>7</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J208" t="n">
+        <v>2</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr"/>
+      <c r="R208" t="inlineStr"/>
+      <c r="S208" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/table_itajai_test_atualizada.xlsx
+++ b/table_itajai_test_atualizada.xlsx
@@ -906,9 +906,19 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>AGN7090D4</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Itajai 6 - AGN7090D4</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -961,9 +971,19 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Itajai 7 - AGN7080D4</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">

--- a/table_itajai_test_atualizada.xlsx
+++ b/table_itajai_test_atualizada.xlsx
@@ -1036,9 +1036,19 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>AGN7090D4</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Itajai 8 - AGN7090D4</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">

--- a/table_itajai_test_atualizada.xlsx
+++ b/table_itajai_test_atualizada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S208"/>
+  <dimension ref="A1:S202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,38 +532,38 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -583,7 +583,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>AGN7080D4</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -591,44 +591,44 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Itajai 1 - AGN7026D4</t>
+          <t>Itajai 1 - AGN7080D4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>40.5</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -648,7 +648,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>AGN7090D4</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -656,17 +656,17 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Itajai 2 - AGN7026D4</t>
+          <t>Itajai 2 - AGN7090D4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>59</v>
+      </c>
+      <c r="B4" t="n">
         <v>16</v>
       </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
@@ -674,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H4" t="n">
         <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -703,17 +703,17 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>AGN7060D4</t>
+          <t>AGN7070D4</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -721,16 +721,16 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Itajai 3 - AGN7060D4</t>
+          <t>Itajai 3 - AGN7070D4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -739,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H5" t="n">
         <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
@@ -768,17 +768,17 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>AGN7060D4</t>
+          <t>AGN7070D4</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -786,44 +786,44 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Itajai 4 - AGN7060D4</t>
+          <t>Itajai 4 - AGN7070D4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F6" t="n">
-        <v>46.5</v>
+        <v>35</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
         <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -833,17 +833,17 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>AGN7100D4</t>
+          <t>AGN7026D4</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -851,44 +851,44 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Itajai 5 - AGN7100D4</t>
+          <t>Itajai 5 - AGN7026D4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
         <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -898,17 +898,17 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>AGN7090D4</t>
+          <t>AGN7026D4</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -916,44 +916,44 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Itajai 6 - AGN7090D4</t>
+          <t>Itajai 6 - AGN7026D4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -963,17 +963,17 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>AGN7080D4</t>
+          <t>AGN7050D4</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -981,44 +981,44 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Itajai 7 - AGN7080D4</t>
+          <t>Itajai 7 - AGN7050D4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F9" t="n">
-        <v>40.5</v>
+        <v>65</v>
       </c>
       <c r="G9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
         <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1028,17 +1028,17 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>AGN7090D4</t>
+          <t>AGN7050D4</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1046,44 +1046,44 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Itajai 8 - AGN7090D4</t>
+          <t>Itajai 8 - AGN7050D4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F10" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1093,7 +1093,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1101,44 +1101,54 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Itajai 9 - AGN7026D4</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F11" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
         <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1148,7 +1158,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1156,37 +1166,47 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Itajai 10 - AGN7026D4</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
@@ -1211,37 +1231,47 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>AGN7060D4</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Itajai 11 - AGN7060D4</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="H13" t="n">
         <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J13" t="n">
         <v>2</v>
@@ -1266,40 +1296,50 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Itajai 12 - AGN7026D4</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14" t="n">
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1321,37 +1361,47 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Itajai 13 - AGN7026D4</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="H15" t="n">
         <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
@@ -1376,37 +1426,47 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Itajai 14 - AGN7040D4</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="H16" t="n">
         <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J16" t="n">
         <v>2</v>
@@ -1431,37 +1491,47 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Itajai 15 - AGN7050D4</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>10.05</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="H17" t="n">
         <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J17" t="n">
         <v>2</v>
@@ -1486,13 +1556,23 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Itajai 16 - AGN7026D4</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
         <v>10.5</v>
@@ -1507,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G18" t="n">
         <v>6.8</v>
@@ -1516,7 +1596,7 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J18" t="n">
         <v>2</v>
@@ -1547,13 +1627,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B19" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1562,23 +1642,23 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G19" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1588,12 +1668,12 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
@@ -1602,38 +1682,38 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="F20" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H20" t="n">
         <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1643,12 +1723,12 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
@@ -1657,13 +1737,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B21" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1672,23 +1752,23 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G21" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
         <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1698,12 +1778,12 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
@@ -1712,13 +1792,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B22" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1727,23 +1807,23 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
         <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
         <v>2</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1753,7 +1833,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1767,13 +1847,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B23" t="n">
-        <v>10.05</v>
+        <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1782,23 +1862,23 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G23" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1808,7 +1888,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -1822,13 +1902,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B24" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1837,23 +1917,23 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H24" t="n">
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
         <v>2</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1863,7 +1943,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -1877,7 +1957,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B25" t="n">
         <v>9</v>
@@ -1892,19 +1972,19 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H25" t="n">
         <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1918,12 +1998,12 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
@@ -1932,31 +2012,31 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G26" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H26" t="n">
         <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>2</v>
@@ -1973,12 +2053,12 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
@@ -1987,10 +2067,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -2002,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
         <v>7</v>
@@ -2011,10 +2091,10 @@
         <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2028,12 +2108,12 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
@@ -2042,7 +2122,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B28" t="n">
         <v>9</v>
@@ -2097,7 +2177,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B29" t="n">
         <v>9</v>
@@ -2112,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G29" t="n">
         <v>7</v>
@@ -2124,7 +2204,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2152,7 +2232,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B30" t="n">
         <v>9</v>
@@ -2167,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G30" t="n">
         <v>7</v>
@@ -2176,7 +2256,7 @@
         <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J30" t="n">
         <v>2</v>
@@ -2207,7 +2287,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B31" t="n">
         <v>9</v>
@@ -2222,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G31" t="n">
         <v>7</v>
@@ -2231,10 +2311,10 @@
         <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2261,9 +2341,7 @@
       <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>133</v>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="n">
         <v>9</v>
       </c>
@@ -2277,16 +2355,14 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G32" t="n">
         <v>7</v>
       </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J32" t="n">
         <v>2</v>
@@ -2296,9 +2372,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
@@ -2316,11 +2390,9 @@
       <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>136</v>
-      </c>
+      <c r="A33" t="inlineStr"/>
       <c r="B33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
@@ -2329,17 +2401,15 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F33" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G33" t="n">
         <v>7</v>
       </c>
-      <c r="H33" t="n">
-        <v>5</v>
-      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
         <v>2</v>
       </c>
@@ -2351,19 +2421,17 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
@@ -2371,14 +2439,12 @@
       <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>140</v>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="n">
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -2387,16 +2453,14 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G34" t="n">
         <v>7</v>
       </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>2</v>
@@ -2406,9 +2470,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
@@ -2426,14 +2488,12 @@
       <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>142</v>
-      </c>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="n">
         <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2442,16 +2502,14 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35" t="n">
         <v>7</v>
       </c>
-      <c r="H35" t="n">
-        <v>5</v>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>2</v>
@@ -2461,9 +2519,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
@@ -2481,11 +2537,9 @@
       <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>144</v>
-      </c>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
@@ -2497,38 +2551,34 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G36" t="n">
         <v>7</v>
       </c>
-      <c r="H36" t="n">
-        <v>5</v>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
@@ -2536,11 +2586,9 @@
       <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>148</v>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
@@ -2552,38 +2600,34 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G37" t="n">
         <v>7</v>
       </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
@@ -2593,26 +2637,26 @@
     <row r="38">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F38" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G38" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>2</v>
@@ -2627,12 +2671,12 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
@@ -2642,29 +2686,29 @@
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2691,7 +2735,7 @@
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -2703,17 +2747,17 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>12</v>
+        <v>40.5</v>
       </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2725,12 +2769,12 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
@@ -2740,7 +2784,7 @@
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -2752,17 +2796,17 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>25.5</v>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2774,12 +2818,12 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -2789,10 +2833,10 @@
     <row r="42">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -2801,17 +2845,17 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>45</v>
+        <v>38.5</v>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2838,29 +2882,29 @@
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>39</v>
+      </c>
+      <c r="G43" t="n">
         <v>8</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>35</v>
-      </c>
-      <c r="G43" t="n">
-        <v>7</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2890,30 +2934,30 @@
         <v>8</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>32</v>
+        <v>25.5</v>
       </c>
       <c r="G44" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
         <v>2</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -2936,7 +2980,7 @@
     <row r="45">
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -2945,20 +2989,20 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>40</v>
+        <v>39.5</v>
       </c>
       <c r="G45" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2985,7 +3029,7 @@
     <row r="46">
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -2997,17 +3041,17 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>40.5</v>
+        <v>38</v>
       </c>
       <c r="G46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3034,7 +3078,7 @@
     <row r="47">
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -3046,21 +3090,21 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>25.5</v>
+        <v>19</v>
       </c>
       <c r="G47" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3083,7 +3127,7 @@
     <row r="48">
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -3092,17 +3136,17 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>38.5</v>
+        <v>40</v>
       </c>
       <c r="G48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
         <v>3</v>
@@ -3132,7 +3176,7 @@
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="n">
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -3144,17 +3188,17 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -3166,12 +3210,12 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr"/>
@@ -3181,10 +3225,10 @@
     <row r="50">
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -3193,21 +3237,21 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>25.5</v>
+        <v>11</v>
       </c>
       <c r="G50" t="n">
         <v>7</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J50" t="n">
         <v>2</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -3215,12 +3259,12 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
@@ -3230,26 +3274,26 @@
     <row r="51">
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>39.5</v>
+        <v>35.4</v>
       </c>
       <c r="G51" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J51" t="n">
         <v>3</v>
@@ -3279,7 +3323,7 @@
     <row r="52">
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -3288,20 +3332,20 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
-        <v>38</v>
+        <v>22.5</v>
       </c>
       <c r="G52" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -3328,33 +3372,33 @@
     <row r="53">
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F53" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G53" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
@@ -3377,33 +3421,33 @@
     <row r="54">
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="F54" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G54" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
@@ -3411,12 +3455,12 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr"/>
@@ -3426,33 +3470,33 @@
     <row r="55">
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F55" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G55" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3460,7 +3504,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -3475,33 +3519,33 @@
     <row r="56">
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F56" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G56" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="J56" t="n">
         <v>2</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
@@ -3509,7 +3553,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -3524,33 +3568,33 @@
     <row r="57">
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F57" t="n">
-        <v>35.4</v>
+        <v>39</v>
       </c>
       <c r="G57" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
@@ -3558,12 +3602,12 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr"/>
@@ -3573,33 +3617,33 @@
     <row r="58">
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="F58" t="n">
-        <v>22.5</v>
+        <v>36</v>
       </c>
       <c r="G58" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
@@ -3607,12 +3651,12 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
@@ -3622,33 +3666,33 @@
     <row r="59">
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="E59" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="F59" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G59" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
@@ -3656,12 +3700,12 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr"/>
@@ -3683,7 +3727,7 @@
         <v>3.8</v>
       </c>
       <c r="F60" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G60" t="n">
         <v>7.8</v>
@@ -3732,7 +3776,7 @@
         <v>3.8</v>
       </c>
       <c r="F61" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G61" t="n">
         <v>7.8</v>
@@ -3781,7 +3825,7 @@
         <v>3.8</v>
       </c>
       <c r="F62" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G62" t="n">
         <v>7.8</v>
@@ -3830,7 +3874,7 @@
         <v>3.8</v>
       </c>
       <c r="F63" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G63" t="n">
         <v>7.8</v>
@@ -3879,7 +3923,7 @@
         <v>3.8</v>
       </c>
       <c r="F64" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G64" t="n">
         <v>7.8</v>
@@ -3928,7 +3972,7 @@
         <v>3.8</v>
       </c>
       <c r="F65" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G65" t="n">
         <v>7.8</v>
@@ -3977,7 +4021,7 @@
         <v>3.8</v>
       </c>
       <c r="F66" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G66" t="n">
         <v>7.8</v>
@@ -4040,7 +4084,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L67" t="inlineStr"/>
@@ -4075,7 +4119,7 @@
         <v>3.8</v>
       </c>
       <c r="F68" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G68" t="n">
         <v>7.8</v>
@@ -4124,7 +4168,7 @@
         <v>3.8</v>
       </c>
       <c r="F69" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G69" t="n">
         <v>7.8</v>
@@ -4138,7 +4182,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
@@ -4173,7 +4217,7 @@
         <v>3.8</v>
       </c>
       <c r="F70" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G70" t="n">
         <v>7.8</v>
@@ -4187,7 +4231,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
@@ -4222,7 +4266,7 @@
         <v>3.8</v>
       </c>
       <c r="F71" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G71" t="n">
         <v>7.8</v>
@@ -4236,7 +4280,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L71" t="inlineStr"/>
@@ -4259,33 +4303,33 @@
     <row r="72">
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G72" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="J72" t="n">
         <v>2</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L72" t="inlineStr"/>
@@ -4293,12 +4337,12 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr"/>
@@ -4308,33 +4352,33 @@
     <row r="73">
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G73" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
@@ -4342,7 +4386,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -4357,33 +4401,33 @@
     <row r="74">
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G74" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
         <v>2</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L74" t="inlineStr"/>
@@ -4391,7 +4435,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -4406,33 +4450,33 @@
     <row r="75">
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G75" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
         <v>2</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L75" t="inlineStr"/>
@@ -4440,7 +4484,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -4455,33 +4499,33 @@
     <row r="76">
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="E76" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="F76" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G76" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="J76" t="n">
         <v>2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L76" t="inlineStr"/>
@@ -4489,7 +4533,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -4504,33 +4548,33 @@
     <row r="77">
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="F77" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G77" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="J77" t="n">
         <v>2</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
@@ -4538,7 +4582,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -4553,29 +4597,29 @@
     <row r="78">
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>35.5</v>
       </c>
       <c r="G78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -4602,7 +4646,7 @@
     <row r="79">
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -4614,17 +4658,17 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>44</v>
+        <v>31.5</v>
       </c>
       <c r="G79" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -4636,12 +4680,12 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr"/>
@@ -4651,7 +4695,7 @@
     <row r="80">
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -4663,17 +4707,17 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G80" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -4685,12 +4729,12 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr"/>
@@ -4700,7 +4744,7 @@
     <row r="81">
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -4709,20 +4753,20 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
-        <v>32</v>
+        <v>30.5</v>
       </c>
       <c r="G81" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -4734,12 +4778,12 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr"/>
@@ -4749,29 +4793,29 @@
     <row r="82">
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
-        <v>29</v>
+        <v>36.5</v>
       </c>
       <c r="G82" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
         <v>0.3</v>
       </c>
       <c r="J82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -4783,12 +4827,12 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr"/>
@@ -4798,33 +4842,33 @@
     <row r="83">
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E83" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="F83" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G83" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="J83" t="n">
         <v>2</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L83" t="inlineStr"/>
@@ -4832,7 +4876,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -4847,33 +4891,33 @@
     <row r="84">
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="F84" t="n">
-        <v>35.5</v>
+        <v>30</v>
       </c>
       <c r="G84" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="J84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L84" t="inlineStr"/>
@@ -4881,12 +4925,12 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr"/>
@@ -4896,33 +4940,33 @@
     <row r="85">
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F85" t="n">
-        <v>31.5</v>
+        <v>40</v>
       </c>
       <c r="G85" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L85" t="inlineStr"/>
@@ -4930,12 +4974,12 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr"/>
@@ -4945,33 +4989,33 @@
     <row r="86">
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F86" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G86" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L86" t="inlineStr"/>
@@ -4979,12 +5023,12 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr"/>
@@ -4994,33 +5038,33 @@
     <row r="87">
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="F87" t="n">
-        <v>30.5</v>
+        <v>40</v>
       </c>
       <c r="G87" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="J87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L87" t="inlineStr"/>
@@ -5028,12 +5072,12 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr"/>
@@ -5043,33 +5087,33 @@
     <row r="88">
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="F88" t="n">
-        <v>36.5</v>
+        <v>42</v>
       </c>
       <c r="G88" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="J88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L88" t="inlineStr"/>
@@ -5077,12 +5121,12 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr"/>
@@ -5104,14 +5148,14 @@
         <v>3.8</v>
       </c>
       <c r="F89" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G89" t="n">
         <v>7.8</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
         <v>2</v>
@@ -5153,7 +5197,7 @@
         <v>3.8</v>
       </c>
       <c r="F90" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G90" t="n">
         <v>7.8</v>
@@ -5202,14 +5246,14 @@
         <v>3.8</v>
       </c>
       <c r="F91" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G91" t="n">
         <v>7.8</v>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
         <v>2</v>
@@ -5251,14 +5295,14 @@
         <v>3.8</v>
       </c>
       <c r="F92" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G92" t="n">
         <v>7.8</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
         <v>2</v>
@@ -5349,7 +5393,7 @@
         <v>3.8</v>
       </c>
       <c r="F94" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G94" t="n">
         <v>7.8</v>
@@ -5398,7 +5442,7 @@
         <v>3.8</v>
       </c>
       <c r="F95" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G95" t="n">
         <v>7.8</v>
@@ -5447,7 +5491,7 @@
         <v>3.8</v>
       </c>
       <c r="F96" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G96" t="n">
         <v>7.8</v>
@@ -5490,20 +5534,20 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E97" t="n">
         <v>3.8</v>
       </c>
       <c r="F97" t="n">
-        <v>34</v>
+        <v>38.5</v>
       </c>
       <c r="G97" t="n">
         <v>7.8</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J97" t="n">
         <v>2</v>
@@ -5539,20 +5583,20 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E98" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="F98" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G98" t="n">
         <v>7.8</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="J98" t="n">
         <v>2</v>
@@ -5588,20 +5632,20 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E99" t="n">
         <v>3.8</v>
       </c>
       <c r="F99" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G99" t="n">
         <v>7.8</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="J99" t="n">
         <v>2</v>
@@ -5637,10 +5681,10 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E100" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="F100" t="n">
         <v>40</v>
@@ -5650,7 +5694,7 @@
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="J100" t="n">
         <v>2</v>
@@ -5686,20 +5730,20 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E101" t="n">
         <v>3.8</v>
       </c>
       <c r="F101" t="n">
-        <v>39</v>
+        <v>34.5</v>
       </c>
       <c r="G101" t="n">
         <v>7.8</v>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J101" t="n">
         <v>2</v>
@@ -5735,20 +5779,20 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E102" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="F102" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G102" t="n">
         <v>7.8</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="J102" t="n">
         <v>2</v>
@@ -5790,7 +5834,7 @@
         <v>3.8</v>
       </c>
       <c r="F103" t="n">
-        <v>38.5</v>
+        <v>32</v>
       </c>
       <c r="G103" t="n">
         <v>7.8</v>
@@ -5839,14 +5883,14 @@
         <v>2.8</v>
       </c>
       <c r="F104" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G104" t="n">
         <v>7.8</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J104" t="n">
         <v>2</v>
@@ -5888,14 +5932,14 @@
         <v>3.8</v>
       </c>
       <c r="F105" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G105" t="n">
         <v>7.8</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J105" t="n">
         <v>2</v>
@@ -5934,17 +5978,17 @@
         <v>3.5</v>
       </c>
       <c r="E106" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="F106" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G106" t="n">
         <v>7.8</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
         <v>2</v>
@@ -5986,14 +6030,14 @@
         <v>3.8</v>
       </c>
       <c r="F107" t="n">
-        <v>34.5</v>
+        <v>32</v>
       </c>
       <c r="G107" t="n">
         <v>7.8</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J107" t="n">
         <v>2</v>
@@ -6032,17 +6076,17 @@
         <v>3.5</v>
       </c>
       <c r="E108" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="F108" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G108" t="n">
         <v>7.8</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
         <v>2</v>
@@ -6084,14 +6128,14 @@
         <v>3.8</v>
       </c>
       <c r="F109" t="n">
-        <v>32</v>
+        <v>39.5</v>
       </c>
       <c r="G109" t="n">
         <v>7.8</v>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
         <v>2</v>
@@ -6130,17 +6174,17 @@
         <v>3.5</v>
       </c>
       <c r="E110" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="F110" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G110" t="n">
         <v>7.8</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J110" t="n">
         <v>2</v>
@@ -6182,14 +6226,14 @@
         <v>3.8</v>
       </c>
       <c r="F111" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G111" t="n">
         <v>7.8</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J111" t="n">
         <v>2</v>
@@ -6231,14 +6275,14 @@
         <v>3.8</v>
       </c>
       <c r="F112" t="n">
-        <v>32</v>
+        <v>39.8</v>
       </c>
       <c r="G112" t="n">
         <v>7.8</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J112" t="n">
         <v>2</v>
@@ -6280,14 +6324,14 @@
         <v>3.8</v>
       </c>
       <c r="F113" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G113" t="n">
         <v>7.8</v>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J113" t="n">
         <v>2</v>
@@ -6329,14 +6373,14 @@
         <v>3.8</v>
       </c>
       <c r="F114" t="n">
-        <v>35</v>
+        <v>39.5</v>
       </c>
       <c r="G114" t="n">
         <v>7.8</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J114" t="n">
         <v>2</v>
@@ -6378,14 +6422,14 @@
         <v>3.8</v>
       </c>
       <c r="F115" t="n">
-        <v>39.5</v>
+        <v>42</v>
       </c>
       <c r="G115" t="n">
         <v>7.8</v>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J115" t="n">
         <v>2</v>
@@ -6427,14 +6471,14 @@
         <v>3.8</v>
       </c>
       <c r="F116" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G116" t="n">
         <v>7.8</v>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J116" t="n">
         <v>2</v>
@@ -6476,14 +6520,14 @@
         <v>3.8</v>
       </c>
       <c r="F117" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G117" t="n">
         <v>7.8</v>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J117" t="n">
         <v>2</v>
@@ -6525,14 +6569,14 @@
         <v>3.8</v>
       </c>
       <c r="F118" t="n">
-        <v>39.8</v>
+        <v>20</v>
       </c>
       <c r="G118" t="n">
         <v>7.8</v>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J118" t="n">
         <v>2</v>
@@ -6574,14 +6618,14 @@
         <v>3.8</v>
       </c>
       <c r="F119" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G119" t="n">
         <v>7.8</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J119" t="n">
         <v>2</v>
@@ -6620,17 +6664,17 @@
         <v>3.5</v>
       </c>
       <c r="E120" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="F120" t="n">
-        <v>39.5</v>
+        <v>42</v>
       </c>
       <c r="G120" t="n">
         <v>7.8</v>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="J120" t="n">
         <v>2</v>
@@ -6672,14 +6716,14 @@
         <v>3.8</v>
       </c>
       <c r="F121" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G121" t="n">
         <v>7.8</v>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J121" t="n">
         <v>2</v>
@@ -6718,17 +6762,17 @@
         <v>3.5</v>
       </c>
       <c r="E122" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="F122" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G122" t="n">
         <v>7.8</v>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="J122" t="n">
         <v>2</v>
@@ -6770,14 +6814,14 @@
         <v>3.8</v>
       </c>
       <c r="F123" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G123" t="n">
         <v>7.8</v>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J123" t="n">
         <v>2</v>
@@ -6816,17 +6860,17 @@
         <v>3.5</v>
       </c>
       <c r="E124" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="F124" t="n">
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="G124" t="n">
         <v>7.8</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="J124" t="n">
         <v>2</v>
@@ -6868,14 +6912,14 @@
         <v>3.8</v>
       </c>
       <c r="F125" t="n">
-        <v>32</v>
+        <v>34.5</v>
       </c>
       <c r="G125" t="n">
         <v>7.8</v>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J125" t="n">
         <v>2</v>
@@ -6917,7 +6961,7 @@
         <v>2.8</v>
       </c>
       <c r="F126" t="n">
-        <v>42</v>
+        <v>30.5</v>
       </c>
       <c r="G126" t="n">
         <v>7.8</v>
@@ -6954,33 +6998,33 @@
     <row r="127">
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D127" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E127" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="F127" t="n">
-        <v>31</v>
+        <v>45.5</v>
       </c>
       <c r="G127" t="n">
         <v>7.8</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="J127" t="n">
         <v>2</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L127" t="inlineStr"/>
@@ -6988,12 +7032,12 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr"/>
@@ -7003,19 +7047,19 @@
     <row r="128">
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E128" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="F128" t="n">
-        <v>33</v>
+        <v>38.3</v>
       </c>
       <c r="G128" t="n">
         <v>7.8</v>
@@ -7029,7 +7073,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L128" t="inlineStr"/>
@@ -7037,12 +7081,12 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr"/>
@@ -7052,33 +7096,33 @@
     <row r="129">
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E129" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="F129" t="n">
-        <v>36</v>
+        <v>45.1</v>
       </c>
       <c r="G129" t="n">
         <v>7.8</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="J129" t="n">
         <v>2</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L129" t="inlineStr"/>
@@ -7086,12 +7130,12 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr"/>
@@ -7101,33 +7145,33 @@
     <row r="130">
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E130" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="F130" t="n">
-        <v>27.5</v>
+        <v>38</v>
       </c>
       <c r="G130" t="n">
         <v>7.8</v>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="J130" t="n">
         <v>2</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L130" t="inlineStr"/>
@@ -7135,12 +7179,12 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr"/>
@@ -7156,20 +7200,20 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="E131" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="F131" t="n">
-        <v>34.5</v>
+        <v>43</v>
       </c>
       <c r="G131" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J131" t="n">
         <v>2</v>
@@ -7199,33 +7243,33 @@
     <row r="132">
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="E132" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="F132" t="n">
-        <v>30.5</v>
+        <v>24</v>
       </c>
       <c r="G132" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L132" t="inlineStr"/>
@@ -7233,12 +7277,12 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr"/>
@@ -7248,29 +7292,29 @@
     <row r="133">
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="C133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="E133" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="F133" t="n">
-        <v>45.5</v>
+        <v>39.6</v>
       </c>
       <c r="G133" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="J133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -7297,22 +7341,22 @@
     <row r="134">
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E134" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="F134" t="n">
-        <v>38.3</v>
+        <v>40</v>
       </c>
       <c r="G134" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
@@ -7346,29 +7390,29 @@
     <row r="135">
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="n">
+        <v>10</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10</v>
+      </c>
+      <c r="G135" t="n">
         <v>8</v>
-      </c>
-      <c r="C135" t="n">
-        <v>2</v>
-      </c>
-      <c r="D135" t="n">
-        <v>2</v>
-      </c>
-      <c r="E135" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="F135" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="G135" t="n">
-        <v>7.8</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="J135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -7395,33 +7439,33 @@
     <row r="136">
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="C136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G136" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
         <v>2</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L136" t="inlineStr"/>
@@ -7444,33 +7488,33 @@
     <row r="137">
       <c r="A137" t="inlineStr"/>
       <c r="B137" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="E137" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="F137" t="n">
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="G137" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L137" t="inlineStr"/>
@@ -7478,7 +7522,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
@@ -7493,26 +7537,26 @@
     <row r="138">
       <c r="A138" t="inlineStr"/>
       <c r="B138" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="E138" t="n">
         <v>2</v>
       </c>
       <c r="F138" t="n">
-        <v>24</v>
+        <v>41.5</v>
       </c>
       <c r="G138" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J138" t="n">
         <v>3</v>
@@ -7527,12 +7571,12 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr"/>
@@ -7542,29 +7586,29 @@
     <row r="139">
       <c r="A139" t="inlineStr"/>
       <c r="B139" t="n">
-        <v>6.3</v>
+        <v>11.5</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D139" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="E139" t="n">
         <v>2</v>
       </c>
       <c r="F139" t="n">
-        <v>39.6</v>
+        <v>31.5</v>
       </c>
       <c r="G139" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="J139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -7576,12 +7620,12 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr"/>
@@ -7591,29 +7635,29 @@
     <row r="140">
       <c r="A140" t="inlineStr"/>
       <c r="B140" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D140" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="E140" t="n">
         <v>2.5</v>
       </c>
       <c r="F140" t="n">
-        <v>40</v>
+        <v>38.1</v>
       </c>
       <c r="G140" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="J140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -7643,23 +7687,23 @@
         <v>10</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>29.5</v>
       </c>
       <c r="G141" t="n">
         <v>8</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
         <v>3</v>
@@ -7689,33 +7733,33 @@
     <row r="142">
       <c r="A142" t="inlineStr"/>
       <c r="B142" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F142" t="n">
-        <v>5</v>
+        <v>40.5</v>
       </c>
       <c r="G142" t="n">
         <v>7.5</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L142" t="inlineStr"/>
@@ -7741,23 +7785,23 @@
         <v>10</v>
       </c>
       <c r="C143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="F143" t="n">
-        <v>42.5</v>
+        <v>37.5</v>
       </c>
       <c r="G143" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J143" t="n">
         <v>3</v>
@@ -7772,12 +7816,12 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr"/>
@@ -7793,20 +7837,20 @@
         <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F144" t="n">
-        <v>41.5</v>
+        <v>30</v>
       </c>
       <c r="G144" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J144" t="n">
         <v>3</v>
@@ -7821,12 +7865,12 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr"/>
@@ -7836,29 +7880,29 @@
     <row r="145">
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="n">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="C145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F145" t="n">
-        <v>31.5</v>
+        <v>40</v>
       </c>
       <c r="G145" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -7870,12 +7914,12 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr"/>
@@ -7885,29 +7929,29 @@
     <row r="146">
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D146" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>38.1</v>
+        <v>42</v>
       </c>
       <c r="G146" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="J146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -7919,12 +7963,12 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr"/>
@@ -7934,29 +7978,29 @@
     <row r="147">
       <c r="A147" t="inlineStr"/>
       <c r="B147" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>29.5</v>
+        <v>31</v>
       </c>
       <c r="G147" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -7968,12 +8012,12 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr"/>
@@ -7983,29 +8027,29 @@
     <row r="148">
       <c r="A148" t="inlineStr"/>
       <c r="B148" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F148" t="n">
-        <v>40.5</v>
+        <v>37</v>
       </c>
       <c r="G148" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -8017,12 +8061,12 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr"/>
@@ -8032,26 +8076,26 @@
     <row r="149">
       <c r="A149" t="inlineStr"/>
       <c r="B149" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E149" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="F149" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="G149" t="n">
         <v>8</v>
       </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="J149" t="n">
         <v>3</v>
@@ -8066,12 +8110,12 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr"/>
@@ -8081,29 +8125,29 @@
     <row r="150">
       <c r="A150" t="inlineStr"/>
       <c r="B150" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="C150" t="n">
         <v>2</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E150" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F150" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G150" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -8115,12 +8159,12 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr"/>
@@ -8130,29 +8174,29 @@
     <row r="151">
       <c r="A151" t="inlineStr"/>
       <c r="B151" t="n">
-        <v>6</v>
+        <v>11.5</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E151" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F151" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G151" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -8164,12 +8208,12 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr"/>
@@ -8179,29 +8223,29 @@
     <row r="152">
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F152" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G152" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -8234,23 +8278,23 @@
         <v>2</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>31</v>
+        <v>37.5</v>
       </c>
       <c r="G153" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -8277,22 +8321,22 @@
     <row r="154">
       <c r="A154" t="inlineStr"/>
       <c r="B154" t="n">
-        <v>12</v>
+        <v>10.7</v>
       </c>
       <c r="C154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="E154" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F154" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G154" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
@@ -8326,26 +8370,26 @@
     <row r="155">
       <c r="A155" t="inlineStr"/>
       <c r="B155" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G155" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="J155" t="n">
         <v>3</v>
@@ -8360,12 +8404,12 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr"/>
@@ -8375,29 +8419,29 @@
     <row r="156">
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="C156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="F156" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G156" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -8409,12 +8453,12 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr"/>
@@ -8424,26 +8468,26 @@
     <row r="157">
       <c r="A157" t="inlineStr"/>
       <c r="B157" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>31</v>
+        <v>41.5</v>
       </c>
       <c r="G157" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
         <v>2</v>
@@ -8458,12 +8502,12 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr"/>
@@ -8473,29 +8517,29 @@
     <row r="158">
       <c r="A158" t="inlineStr"/>
       <c r="B158" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E158" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="F158" t="n">
-        <v>6</v>
+        <v>37.8</v>
       </c>
       <c r="G158" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -8507,12 +8551,12 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr"/>
@@ -8522,29 +8566,29 @@
     <row r="159">
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C159" t="n">
         <v>2</v>
       </c>
       <c r="D159" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F159" t="n">
-        <v>37.5</v>
+        <v>38.8</v>
       </c>
       <c r="G159" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="J159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -8556,12 +8600,12 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr"/>
@@ -8571,26 +8615,26 @@
     <row r="160">
       <c r="A160" t="inlineStr"/>
       <c r="B160" t="n">
-        <v>10.7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="E160" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="F160" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G160" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="J160" t="n">
         <v>2</v>
@@ -8605,12 +8649,12 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr"/>
@@ -8620,29 +8664,29 @@
     <row r="161">
       <c r="A161" t="inlineStr"/>
       <c r="B161" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F161" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G161" t="n">
         <v>7</v>
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="J161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -8669,16 +8713,16 @@
     <row r="162">
       <c r="A162" t="inlineStr"/>
       <c r="B162" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="F162" t="n">
         <v>40</v>
@@ -8688,10 +8732,10 @@
       </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -8718,10 +8762,10 @@
     <row r="163">
       <c r="A163" t="inlineStr"/>
       <c r="B163" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -8730,17 +8774,17 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>41.5</v>
+        <v>36.5</v>
       </c>
       <c r="G163" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -8767,26 +8811,26 @@
     <row r="164">
       <c r="A164" t="inlineStr"/>
       <c r="B164" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="C164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>37.8</v>
+        <v>36</v>
       </c>
       <c r="G164" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
         <v>2</v>
@@ -8816,7 +8860,7 @@
     <row r="165">
       <c r="A165" t="inlineStr"/>
       <c r="B165" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C165" t="n">
         <v>2</v>
@@ -8825,17 +8869,17 @@
         <v>2</v>
       </c>
       <c r="E165" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="F165" t="n">
-        <v>38.8</v>
+        <v>40</v>
       </c>
       <c r="G165" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="J165" t="n">
         <v>2</v>
@@ -8865,26 +8909,26 @@
     <row r="166">
       <c r="A166" t="inlineStr"/>
       <c r="B166" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G166" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="J166" t="n">
         <v>2</v>
@@ -8899,12 +8943,12 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr"/>
@@ -8914,26 +8958,26 @@
     <row r="167">
       <c r="A167" t="inlineStr"/>
       <c r="B167" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G167" t="n">
         <v>7</v>
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="n">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="J167" t="n">
         <v>2</v>
@@ -8948,12 +8992,12 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr"/>
@@ -8963,7 +9007,7 @@
     <row r="168">
       <c r="A168" t="inlineStr"/>
       <c r="B168" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
@@ -8972,17 +9016,17 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G168" t="n">
         <v>7</v>
       </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="J168" t="n">
         <v>2</v>
@@ -8997,12 +9041,12 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr"/>
@@ -9012,10 +9056,10 @@
     <row r="169">
       <c r="A169" t="inlineStr"/>
       <c r="B169" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -9024,17 +9068,17 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>36.5</v>
+        <v>35</v>
       </c>
       <c r="G169" t="n">
         <v>7</v>
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -9046,12 +9090,12 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr"/>
@@ -9061,7 +9105,7 @@
     <row r="170">
       <c r="A170" t="inlineStr"/>
       <c r="B170" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
@@ -9073,14 +9117,14 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G170" t="n">
         <v>7</v>
       </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J170" t="n">
         <v>2</v>
@@ -9095,12 +9139,12 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr"/>
@@ -9110,26 +9154,26 @@
     <row r="171">
       <c r="A171" t="inlineStr"/>
       <c r="B171" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G171" t="n">
         <v>7</v>
       </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="J171" t="n">
         <v>2</v>
@@ -9144,12 +9188,12 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr"/>
@@ -9266,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F174" t="n">
         <v>35</v>
@@ -9315,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F175" t="n">
         <v>35</v>
@@ -9364,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F176" t="n">
         <v>35</v>
@@ -9374,7 +9418,7 @@
       </c>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J176" t="n">
         <v>2</v>
@@ -9413,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F177" t="n">
         <v>35</v>
@@ -9423,7 +9467,7 @@
       </c>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J177" t="n">
         <v>2</v>
@@ -9462,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F178" t="n">
         <v>35</v>
@@ -9472,7 +9516,7 @@
       </c>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J178" t="n">
         <v>2</v>
@@ -9511,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F179" t="n">
         <v>35</v>
@@ -9521,7 +9565,7 @@
       </c>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J179" t="n">
         <v>2</v>
@@ -9570,7 +9614,7 @@
       </c>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J180" t="n">
         <v>2</v>
@@ -9619,7 +9663,7 @@
       </c>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J181" t="n">
         <v>2</v>
@@ -9707,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
         <v>35</v>
@@ -9717,7 +9761,7 @@
       </c>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J183" t="n">
         <v>2</v>
@@ -9756,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
         <v>35</v>
@@ -9766,7 +9810,7 @@
       </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J184" t="n">
         <v>2</v>
@@ -9805,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
         <v>35</v>
@@ -9815,7 +9859,7 @@
       </c>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J185" t="n">
         <v>2</v>
@@ -9854,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F186" t="n">
         <v>35</v>
@@ -9864,7 +9908,7 @@
       </c>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J186" t="n">
         <v>2</v>
@@ -9903,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
         <v>35</v>
@@ -9913,7 +9957,7 @@
       </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J187" t="n">
         <v>2</v>
@@ -9952,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
         <v>35</v>
@@ -9962,7 +10006,7 @@
       </c>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
         <v>2</v>
@@ -10256,7 +10300,7 @@
       </c>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J194" t="n">
         <v>2</v>
@@ -10295,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F195" t="n">
         <v>35</v>
@@ -10305,7 +10349,7 @@
       </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J195" t="n">
         <v>2</v>
@@ -10344,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F196" t="n">
         <v>35</v>
@@ -10354,7 +10398,7 @@
       </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J196" t="n">
         <v>2</v>
@@ -10393,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F197" t="n">
         <v>35</v>
@@ -10403,7 +10447,7 @@
       </c>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J197" t="n">
         <v>2</v>
@@ -10442,7 +10486,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F198" t="n">
         <v>35</v>
@@ -10452,7 +10496,7 @@
       </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J198" t="n">
         <v>2</v>
@@ -10491,7 +10535,7 @@
         <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F199" t="n">
         <v>35</v>
@@ -10501,7 +10545,7 @@
       </c>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J199" t="n">
         <v>2</v>
@@ -10540,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F200" t="n">
         <v>35</v>
@@ -10550,7 +10594,7 @@
       </c>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J200" t="n">
         <v>2</v>
@@ -10599,7 +10643,7 @@
       </c>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="J201" t="n">
         <v>2</v>
@@ -10641,14 +10685,14 @@
         <v>1.2</v>
       </c>
       <c r="F202" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G202" t="n">
         <v>7</v>
       </c>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J202" t="n">
         <v>2</v>
@@ -10675,300 +10719,6 @@
       <c r="R202" t="inlineStr"/>
       <c r="S202" t="inlineStr"/>
     </row>
-    <row r="203">
-      <c r="A203" t="inlineStr"/>
-      <c r="B203" t="n">
-        <v>10</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1</v>
-      </c>
-      <c r="D203" t="n">
-        <v>0</v>
-      </c>
-      <c r="E203" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F203" t="n">
-        <v>35</v>
-      </c>
-      <c r="G203" t="n">
-        <v>7</v>
-      </c>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J203" t="n">
-        <v>2</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="inlineStr"/>
-      <c r="N203" t="inlineStr"/>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>V4</t>
-        </is>
-      </c>
-      <c r="P203" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr"/>
-      <c r="B204" t="n">
-        <v>10</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1</v>
-      </c>
-      <c r="D204" t="n">
-        <v>0</v>
-      </c>
-      <c r="E204" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F204" t="n">
-        <v>35</v>
-      </c>
-      <c r="G204" t="n">
-        <v>7</v>
-      </c>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J204" t="n">
-        <v>2</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr"/>
-      <c r="O204" t="inlineStr">
-        <is>
-          <t>V4</t>
-        </is>
-      </c>
-      <c r="P204" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr"/>
-      <c r="B205" t="n">
-        <v>10</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1</v>
-      </c>
-      <c r="D205" t="n">
-        <v>0</v>
-      </c>
-      <c r="E205" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F205" t="n">
-        <v>35</v>
-      </c>
-      <c r="G205" t="n">
-        <v>7</v>
-      </c>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J205" t="n">
-        <v>2</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="inlineStr"/>
-      <c r="N205" t="inlineStr"/>
-      <c r="O205" t="inlineStr">
-        <is>
-          <t>V4</t>
-        </is>
-      </c>
-      <c r="P205" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr"/>
-      <c r="B206" t="n">
-        <v>10</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0</v>
-      </c>
-      <c r="E206" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F206" t="n">
-        <v>35</v>
-      </c>
-      <c r="G206" t="n">
-        <v>7</v>
-      </c>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J206" t="n">
-        <v>2</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="inlineStr"/>
-      <c r="N206" t="inlineStr"/>
-      <c r="O206" t="inlineStr">
-        <is>
-          <t>V4</t>
-        </is>
-      </c>
-      <c r="P206" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr"/>
-      <c r="B207" t="n">
-        <v>10</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0</v>
-      </c>
-      <c r="E207" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F207" t="n">
-        <v>35</v>
-      </c>
-      <c r="G207" t="n">
-        <v>7</v>
-      </c>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J207" t="n">
-        <v>2</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="inlineStr"/>
-      <c r="N207" t="inlineStr"/>
-      <c r="O207" t="inlineStr">
-        <is>
-          <t>V4</t>
-        </is>
-      </c>
-      <c r="P207" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr"/>
-      <c r="B208" t="n">
-        <v>10</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1</v>
-      </c>
-      <c r="D208" t="n">
-        <v>0</v>
-      </c>
-      <c r="E208" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F208" t="n">
-        <v>10</v>
-      </c>
-      <c r="G208" t="n">
-        <v>7</v>
-      </c>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J208" t="n">
-        <v>2</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="inlineStr"/>
-      <c r="N208" t="inlineStr"/>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>V4</t>
-        </is>
-      </c>
-      <c r="P208" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_itajai_test_atualizada.xlsx
+++ b/table_itajai_test_atualizada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S202"/>
+  <dimension ref="A1:S198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,38 +532,38 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -573,17 +573,17 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>AGN7080D4</t>
+          <t>AGN7026D4</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -591,44 +591,44 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Itajai 1 - AGN7080D4</t>
+          <t>Itajai 1 - AGN7026D4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F3" t="n">
-        <v>40.5</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -638,17 +638,17 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>AGN7090D4</t>
+          <t>AGN7026D4</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -656,44 +656,44 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Itajai 2 - AGN7090D4</t>
+          <t>Itajai 2 - AGN7026D4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="G4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
         <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -703,7 +703,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>AGN7070D4</t>
+          <t>AGN7050D4</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -721,44 +721,44 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Itajai 3 - AGN7070D4</t>
+          <t>Itajai 3 - AGN7050D4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F5" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="G5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
         <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -768,7 +768,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>AGN7070D4</t>
+          <t>AGN7050D4</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -786,13 +786,13 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Itajai 4 - AGN7070D4</t>
+          <t>Itajai 4 - AGN7050D4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B6" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         <v>1.5</v>
       </c>
       <c r="F6" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G6" t="n">
         <v>6</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B7" t="n">
         <v>7</v>
@@ -872,7 +872,7 @@
         <v>1.5</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
@@ -881,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
@@ -922,31 +922,31 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
+          <t>AGN7060D4</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -981,37 +981,37 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Itajai 7 - AGN7050D4</t>
+          <t>Itajai 7 - AGN7060D4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="H9" t="n">
         <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
+          <t>AGN7026D4</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1046,40 +1046,40 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Itajai 8 - AGN7050D4</t>
+          <t>Itajai 8 - AGN7026D4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
         <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1117,31 +1117,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="H11" t="n">
         <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>AGN7040D4</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1176,13 +1176,13 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Itajai 10 - AGN7026D4</t>
+          <t>Itajai 10 - AGN7040D4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B12" t="n">
         <v>10.5</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G12" t="n">
         <v>6.8</v>
@@ -1206,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>AGN7060D4</t>
+          <t>AGN7050D4</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1241,16 +1241,16 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Itajai 11 - AGN7060D4</t>
+          <t>Itajai 11 - AGN7050D4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B13" t="n">
-        <v>10.5</v>
+        <v>10.05</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G13" t="n">
         <v>6.8</v>
@@ -1271,7 +1271,7 @@
         <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J13" t="n">
         <v>2</v>
@@ -1312,34 +1312,34 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H14" t="n">
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>AGN7040D4</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1371,19 +1371,19 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Itajai 13 - AGN7026D4</t>
+          <t>Itajai 13 - AGN7040D4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B15" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1392,23 +1392,23 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="H15" t="n">
         <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1418,17 +1418,17 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>AGN7090D4</t>
         </is>
       </c>
       <c r="R15" t="n">
@@ -1436,31 +1436,31 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Itajai 14 - AGN7040D4</t>
+          <t>Itajai 14 - AGN7090D4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B16" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F16" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G16" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="H16" t="n">
         <v>5</v>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1483,17 +1483,17 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
+          <t>AGN7060D4</t>
         </is>
       </c>
       <c r="R16" t="n">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Itajai 15 - AGN7050D4</t>
+          <t>Itajai 15 - AGN7060D4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B17" t="n">
-        <v>10.05</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1522,23 +1522,23 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G17" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H17" t="n">
         <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1548,17 +1548,17 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>AGN7080D4</t>
         </is>
       </c>
       <c r="R17" t="n">
@@ -1566,19 +1566,19 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Itajai 16 - AGN7026D4</t>
+          <t>Itajai 16 - AGN7080D4</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B18" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1587,23 +1587,23 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G18" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
         <v>2</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1613,7 +1613,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1621,13 +1621,23 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Itajai 17 - AGN7050D4</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B19" t="n">
         <v>9</v>
@@ -1642,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1668,45 +1678,55 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>AGN7070D4</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Itajai 18 - AGN7070D4</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G20" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
         <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
         <v>2</v>
@@ -1723,24 +1743,34 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Itajai 19 - AGN7040D4</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -1761,10 +1791,10 @@
         <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1778,21 +1808,31 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Itajai 20 - AGN7040D4</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B22" t="n">
         <v>9</v>
@@ -1807,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G22" t="n">
         <v>7</v>
@@ -1841,13 +1881,23 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>AGN7060D4</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Itajai 21 - AGN7060D4</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B23" t="n">
         <v>9</v>
@@ -1862,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G23" t="n">
         <v>7</v>
@@ -1874,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1896,13 +1946,23 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Itajai 22 - AGN7050D4</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B24" t="n">
         <v>9</v>
@@ -1917,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
         <v>7</v>
@@ -1951,13 +2011,23 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Itajai 23 - AGN7050D4</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B25" t="n">
         <v>9</v>
@@ -1972,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G25" t="n">
         <v>7</v>
@@ -1984,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2006,13 +2076,23 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Itajai 24 - AGN7050D4</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B26" t="n">
         <v>9</v>
@@ -2027,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G26" t="n">
         <v>7</v>
@@ -2036,7 +2116,7 @@
         <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J26" t="n">
         <v>2</v>
@@ -2061,13 +2141,23 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Itajai 25 - AGN7050D4</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B27" t="n">
         <v>9</v>
@@ -2082,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G27" t="n">
         <v>7</v>
@@ -2091,7 +2181,7 @@
         <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J27" t="n">
         <v>2</v>
@@ -2116,14 +2206,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>AGN7060D4</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Itajai 26 - AGN7060D4</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>140</v>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="n">
         <v>9</v>
       </c>
@@ -2137,16 +2235,14 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G28" t="n">
         <v>7</v>
       </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J28" t="n">
         <v>2</v>
@@ -2156,9 +2252,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
@@ -2171,16 +2265,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Itajai 27 - AGN7030D4</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>142</v>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -2189,17 +2289,15 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F29" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G29" t="n">
         <v>7</v>
       </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
         <v>2</v>
       </c>
@@ -2211,34 +2309,38 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr"/>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>AGN7070D4</t>
+        </is>
+      </c>
       <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Itajai 28 - AGN7070D4</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>144</v>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="n">
         <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2247,16 +2349,14 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
         <v>7</v>
       </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>2</v>
@@ -2266,9 +2366,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
@@ -2281,19 +2379,25 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Itajai 29 - AGN7026D4</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>148</v>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="n">
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2302,16 +2406,14 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G31" t="n">
         <v>7</v>
       </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>2</v>
@@ -2321,9 +2423,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
@@ -2336,14 +2436,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>AGN7070D4</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Itajai 30 - AGN7070D4</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
@@ -2355,17 +2463,17 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G32" t="n">
         <v>7</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2377,17 +2485,25 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr"/>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>NAO ATENDE</t>
+        </is>
+      </c>
       <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Itajai 31 - NAO ATENDE</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -2401,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G33" t="n">
         <v>7</v>
@@ -2414,7 +2530,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2434,29 +2550,37 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>AGN7090D4</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Itajai 32 - AGN7090D4</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F34" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G34" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
@@ -2475,22 +2599,30 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr"/>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Itajai 33 - AGN7080D4</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -2502,17 +2634,17 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2524,25 +2656,33 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr"/>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>AGN7070D4</t>
+        </is>
+      </c>
       <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Itajai 34 - AGN7070D4</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2551,17 +2691,17 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>45</v>
+        <v>40.5</v>
       </c>
       <c r="G36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2588,29 +2728,29 @@
     <row r="37">
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G37" t="n">
         <v>8</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>35</v>
-      </c>
-      <c r="G37" t="n">
-        <v>7</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2637,29 +2777,29 @@
     <row r="38">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>32</v>
+        <v>38.5</v>
       </c>
       <c r="G38" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2686,7 +2826,7 @@
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -2698,17 +2838,17 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2735,7 +2875,7 @@
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -2747,21 +2887,21 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>40.5</v>
+        <v>25.5</v>
       </c>
       <c r="G40" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
@@ -2784,7 +2924,7 @@
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -2793,20 +2933,20 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>25.5</v>
+        <v>39.5</v>
       </c>
       <c r="G41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2833,7 +2973,7 @@
     <row r="42">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -2845,17 +2985,17 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="G42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2882,7 +3022,7 @@
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -2894,21 +3034,21 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G43" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -2940,24 +3080,24 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
-        <v>25.5</v>
+        <v>40</v>
       </c>
       <c r="G44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -2980,7 +3120,7 @@
     <row r="45">
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -2989,17 +3129,17 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>39.5</v>
+        <v>30</v>
       </c>
       <c r="G45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J45" t="n">
         <v>3</v>
@@ -3014,12 +3154,12 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
@@ -3029,10 +3169,10 @@
     <row r="46">
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -3041,17 +3181,17 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3063,12 +3203,12 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
@@ -3078,33 +3218,33 @@
     <row r="47">
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>19</v>
+        <v>35.4</v>
       </c>
       <c r="G47" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3136,17 +3276,17 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
-        <v>40</v>
+        <v>22.5</v>
       </c>
       <c r="G48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J48" t="n">
         <v>3</v>
@@ -3176,16 +3316,16 @@
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F49" t="n">
         <v>30</v>
@@ -3210,12 +3350,12 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr"/>
@@ -3225,33 +3365,33 @@
     <row r="50">
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F50" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G50" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="J50" t="n">
         <v>2</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -3259,7 +3399,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -3274,33 +3414,33 @@
     <row r="51">
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F51" t="n">
-        <v>35.4</v>
+        <v>27</v>
       </c>
       <c r="G51" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -3308,12 +3448,12 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr"/>
@@ -3323,33 +3463,33 @@
     <row r="52">
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="F52" t="n">
-        <v>22.5</v>
+        <v>29</v>
       </c>
       <c r="G52" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -3357,12 +3497,12 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr"/>
@@ -3372,33 +3512,33 @@
     <row r="53">
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="E53" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="F53" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G53" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
@@ -3406,12 +3546,12 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr"/>
@@ -3433,7 +3573,7 @@
         <v>3.8</v>
       </c>
       <c r="F54" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G54" t="n">
         <v>7.8</v>
@@ -3482,7 +3622,7 @@
         <v>3.8</v>
       </c>
       <c r="F55" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G55" t="n">
         <v>7.8</v>
@@ -3531,7 +3671,7 @@
         <v>3.8</v>
       </c>
       <c r="F56" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G56" t="n">
         <v>7.8</v>
@@ -3580,7 +3720,7 @@
         <v>3.8</v>
       </c>
       <c r="F57" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G57" t="n">
         <v>7.8</v>
@@ -3629,7 +3769,7 @@
         <v>3.8</v>
       </c>
       <c r="F58" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G58" t="n">
         <v>7.8</v>
@@ -3678,7 +3818,7 @@
         <v>3.8</v>
       </c>
       <c r="F59" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G59" t="n">
         <v>7.8</v>
@@ -3727,7 +3867,7 @@
         <v>3.8</v>
       </c>
       <c r="F60" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G60" t="n">
         <v>7.8</v>
@@ -3776,7 +3916,7 @@
         <v>3.8</v>
       </c>
       <c r="F61" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G61" t="n">
         <v>7.8</v>
@@ -3825,7 +3965,7 @@
         <v>3.8</v>
       </c>
       <c r="F62" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G62" t="n">
         <v>7.8</v>
@@ -3874,7 +4014,7 @@
         <v>3.8</v>
       </c>
       <c r="F63" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G63" t="n">
         <v>7.8</v>
@@ -3888,7 +4028,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
@@ -3923,7 +4063,7 @@
         <v>3.8</v>
       </c>
       <c r="F64" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G64" t="n">
         <v>7.8</v>
@@ -3972,7 +4112,7 @@
         <v>3.8</v>
       </c>
       <c r="F65" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G65" t="n">
         <v>7.8</v>
@@ -3986,7 +4126,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
@@ -4021,7 +4161,7 @@
         <v>3.8</v>
       </c>
       <c r="F66" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G66" t="n">
         <v>7.8</v>
@@ -4035,7 +4175,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
@@ -4070,7 +4210,7 @@
         <v>3.8</v>
       </c>
       <c r="F67" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G67" t="n">
         <v>7.8</v>
@@ -4107,33 +4247,33 @@
     <row r="68">
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G68" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="J68" t="n">
         <v>2</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
@@ -4141,12 +4281,12 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr"/>
@@ -4156,33 +4296,33 @@
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G69" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
@@ -4190,7 +4330,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -4205,33 +4345,33 @@
     <row r="70">
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G70" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
         <v>2</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
@@ -4239,7 +4379,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -4254,33 +4394,33 @@
     <row r="71">
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G71" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>2</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L71" t="inlineStr"/>
@@ -4288,7 +4428,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -4303,26 +4443,26 @@
     <row r="72">
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="n">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G72" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="J72" t="n">
         <v>2</v>
@@ -4337,12 +4477,12 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr"/>
@@ -4352,7 +4492,7 @@
     <row r="73">
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -4361,20 +4501,20 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F73" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G73" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -4401,7 +4541,7 @@
     <row r="74">
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -4410,20 +4550,20 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>28</v>
+        <v>35.5</v>
       </c>
       <c r="G74" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -4435,12 +4575,12 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr"/>
@@ -4450,7 +4590,7 @@
     <row r="75">
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -4462,17 +4602,17 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>32</v>
+        <v>31.5</v>
       </c>
       <c r="G75" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -4484,12 +4624,12 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr"/>
@@ -4499,29 +4639,29 @@
     <row r="76">
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G76" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -4533,12 +4673,12 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr"/>
@@ -4548,7 +4688,7 @@
     <row r="77">
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -4557,20 +4697,20 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
-        <v>37</v>
+        <v>30.5</v>
       </c>
       <c r="G77" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
         <v>0.3</v>
       </c>
       <c r="J77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -4582,12 +4722,12 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr"/>
@@ -4609,14 +4749,14 @@
         <v>3</v>
       </c>
       <c r="F78" t="n">
-        <v>35.5</v>
+        <v>36.5</v>
       </c>
       <c r="G78" t="n">
         <v>8</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J78" t="n">
         <v>3</v>
@@ -4646,33 +4786,33 @@
     <row r="79">
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F79" t="n">
-        <v>31.5</v>
+        <v>40</v>
       </c>
       <c r="G79" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
@@ -4680,12 +4820,12 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr"/>
@@ -4695,33 +4835,33 @@
     <row r="80">
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F80" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G80" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L80" t="inlineStr"/>
@@ -4729,12 +4869,12 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr"/>
@@ -4744,33 +4884,33 @@
     <row r="81">
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="F81" t="n">
-        <v>30.5</v>
+        <v>40</v>
       </c>
       <c r="G81" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L81" t="inlineStr"/>
@@ -4778,12 +4918,12 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr"/>
@@ -4793,33 +4933,33 @@
     <row r="82">
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="F82" t="n">
-        <v>36.5</v>
+        <v>40</v>
       </c>
       <c r="G82" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="J82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L82" t="inlineStr"/>
@@ -4827,12 +4967,12 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr"/>
@@ -4903,7 +5043,7 @@
         <v>3.8</v>
       </c>
       <c r="F84" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G84" t="n">
         <v>7.8</v>
@@ -4952,14 +5092,14 @@
         <v>3.8</v>
       </c>
       <c r="F85" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G85" t="n">
         <v>7.8</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
         <v>2</v>
@@ -5001,7 +5141,7 @@
         <v>3.8</v>
       </c>
       <c r="F86" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G86" t="n">
         <v>7.8</v>
@@ -5050,14 +5190,14 @@
         <v>3.8</v>
       </c>
       <c r="F87" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G87" t="n">
         <v>7.8</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
         <v>2</v>
@@ -5099,14 +5239,14 @@
         <v>3.8</v>
       </c>
       <c r="F88" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G88" t="n">
         <v>7.8</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
         <v>2</v>
@@ -5148,14 +5288,14 @@
         <v>3.8</v>
       </c>
       <c r="F89" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G89" t="n">
         <v>7.8</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J89" t="n">
         <v>2</v>
@@ -5197,7 +5337,7 @@
         <v>3.8</v>
       </c>
       <c r="F90" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G90" t="n">
         <v>7.8</v>
@@ -5246,7 +5386,7 @@
         <v>3.8</v>
       </c>
       <c r="F91" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G91" t="n">
         <v>7.8</v>
@@ -5295,14 +5435,14 @@
         <v>3.8</v>
       </c>
       <c r="F92" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G92" t="n">
         <v>7.8</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J92" t="n">
         <v>2</v>
@@ -5338,20 +5478,20 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E93" t="n">
         <v>3.8</v>
       </c>
       <c r="F93" t="n">
-        <v>40</v>
+        <v>38.5</v>
       </c>
       <c r="G93" t="n">
         <v>7.8</v>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="J93" t="n">
         <v>2</v>
@@ -5387,20 +5527,20 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E94" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="F94" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G94" t="n">
         <v>7.8</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="J94" t="n">
         <v>2</v>
@@ -5436,20 +5576,20 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E95" t="n">
         <v>3.8</v>
       </c>
       <c r="F95" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G95" t="n">
         <v>7.8</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J95" t="n">
         <v>2</v>
@@ -5485,20 +5625,20 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E96" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="F96" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G96" t="n">
         <v>7.8</v>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="J96" t="n">
         <v>2</v>
@@ -5540,14 +5680,14 @@
         <v>3.8</v>
       </c>
       <c r="F97" t="n">
-        <v>38.5</v>
+        <v>34.5</v>
       </c>
       <c r="G97" t="n">
         <v>7.8</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J97" t="n">
         <v>2</v>
@@ -5589,14 +5729,14 @@
         <v>2.8</v>
       </c>
       <c r="F98" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G98" t="n">
         <v>7.8</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J98" t="n">
         <v>2</v>
@@ -5638,14 +5778,14 @@
         <v>3.8</v>
       </c>
       <c r="F99" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G99" t="n">
         <v>7.8</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J99" t="n">
         <v>2</v>
@@ -5687,14 +5827,14 @@
         <v>2.8</v>
       </c>
       <c r="F100" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G100" t="n">
         <v>7.8</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J100" t="n">
         <v>2</v>
@@ -5736,14 +5876,14 @@
         <v>3.8</v>
       </c>
       <c r="F101" t="n">
-        <v>34.5</v>
+        <v>19</v>
       </c>
       <c r="G101" t="n">
         <v>7.8</v>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J101" t="n">
         <v>2</v>
@@ -5782,17 +5922,17 @@
         <v>3.5</v>
       </c>
       <c r="E102" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="F102" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G102" t="n">
         <v>7.8</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
         <v>2</v>
@@ -5841,7 +5981,7 @@
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J103" t="n">
         <v>2</v>
@@ -5880,17 +6020,17 @@
         <v>3.5</v>
       </c>
       <c r="E104" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="F104" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G104" t="n">
         <v>7.8</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
         <v>2</v>
@@ -5932,14 +6072,14 @@
         <v>3.8</v>
       </c>
       <c r="F105" t="n">
-        <v>19</v>
+        <v>39.5</v>
       </c>
       <c r="G105" t="n">
         <v>7.8</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
         <v>2</v>
@@ -5981,14 +6121,14 @@
         <v>3.8</v>
       </c>
       <c r="F106" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G106" t="n">
         <v>7.8</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J106" t="n">
         <v>2</v>
@@ -6030,14 +6170,14 @@
         <v>3.8</v>
       </c>
       <c r="F107" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G107" t="n">
         <v>7.8</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J107" t="n">
         <v>2</v>
@@ -6079,14 +6219,14 @@
         <v>3.8</v>
       </c>
       <c r="F108" t="n">
-        <v>35</v>
+        <v>39.8</v>
       </c>
       <c r="G108" t="n">
         <v>7.8</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J108" t="n">
         <v>2</v>
@@ -6128,14 +6268,14 @@
         <v>3.8</v>
       </c>
       <c r="F109" t="n">
-        <v>39.5</v>
+        <v>38</v>
       </c>
       <c r="G109" t="n">
         <v>7.8</v>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="J109" t="n">
         <v>2</v>
@@ -6177,14 +6317,14 @@
         <v>3.8</v>
       </c>
       <c r="F110" t="n">
-        <v>34</v>
+        <v>39.5</v>
       </c>
       <c r="G110" t="n">
         <v>7.8</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="J110" t="n">
         <v>2</v>
@@ -6226,14 +6366,14 @@
         <v>3.8</v>
       </c>
       <c r="F111" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G111" t="n">
         <v>7.8</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J111" t="n">
         <v>2</v>
@@ -6275,14 +6415,14 @@
         <v>3.8</v>
       </c>
       <c r="F112" t="n">
-        <v>39.8</v>
+        <v>31</v>
       </c>
       <c r="G112" t="n">
         <v>7.8</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J112" t="n">
         <v>2</v>
@@ -6324,14 +6464,14 @@
         <v>3.8</v>
       </c>
       <c r="F113" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G113" t="n">
         <v>7.8</v>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J113" t="n">
         <v>2</v>
@@ -6373,14 +6513,14 @@
         <v>3.8</v>
       </c>
       <c r="F114" t="n">
-        <v>39.5</v>
+        <v>20</v>
       </c>
       <c r="G114" t="n">
         <v>7.8</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="J114" t="n">
         <v>2</v>
@@ -6422,14 +6562,14 @@
         <v>3.8</v>
       </c>
       <c r="F115" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G115" t="n">
         <v>7.8</v>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J115" t="n">
         <v>2</v>
@@ -6468,17 +6608,17 @@
         <v>3.5</v>
       </c>
       <c r="E116" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="F116" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G116" t="n">
         <v>7.8</v>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="J116" t="n">
         <v>2</v>
@@ -6520,14 +6660,14 @@
         <v>3.8</v>
       </c>
       <c r="F117" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G117" t="n">
         <v>7.8</v>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J117" t="n">
         <v>2</v>
@@ -6566,17 +6706,17 @@
         <v>3.5</v>
       </c>
       <c r="E118" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="F118" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G118" t="n">
         <v>7.8</v>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="J118" t="n">
         <v>2</v>
@@ -6618,14 +6758,14 @@
         <v>3.8</v>
       </c>
       <c r="F119" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G119" t="n">
         <v>7.8</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J119" t="n">
         <v>2</v>
@@ -6667,7 +6807,7 @@
         <v>2.8</v>
       </c>
       <c r="F120" t="n">
-        <v>42</v>
+        <v>27.5</v>
       </c>
       <c r="G120" t="n">
         <v>7.8</v>
@@ -6716,7 +6856,7 @@
         <v>3.8</v>
       </c>
       <c r="F121" t="n">
-        <v>31</v>
+        <v>34.5</v>
       </c>
       <c r="G121" t="n">
         <v>7.8</v>
@@ -6765,7 +6905,7 @@
         <v>2.8</v>
       </c>
       <c r="F122" t="n">
-        <v>33</v>
+        <v>30.5</v>
       </c>
       <c r="G122" t="n">
         <v>7.8</v>
@@ -6802,33 +6942,33 @@
     <row r="123">
       <c r="A123" t="inlineStr"/>
       <c r="B123" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="F123" t="n">
-        <v>36</v>
+        <v>45.5</v>
       </c>
       <c r="G123" t="n">
         <v>7.8</v>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="J123" t="n">
         <v>2</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L123" t="inlineStr"/>
@@ -6836,12 +6976,12 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr"/>
@@ -6851,19 +6991,19 @@
     <row r="124">
       <c r="A124" t="inlineStr"/>
       <c r="B124" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E124" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="F124" t="n">
-        <v>27.5</v>
+        <v>38.3</v>
       </c>
       <c r="G124" t="n">
         <v>7.8</v>
@@ -6877,7 +7017,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L124" t="inlineStr"/>
@@ -6885,12 +7025,12 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr"/>
@@ -6900,33 +7040,33 @@
     <row r="125">
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E125" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="F125" t="n">
-        <v>34.5</v>
+        <v>45.1</v>
       </c>
       <c r="G125" t="n">
         <v>7.8</v>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="J125" t="n">
         <v>2</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L125" t="inlineStr"/>
@@ -6934,12 +7074,12 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr"/>
@@ -6949,33 +7089,33 @@
     <row r="126">
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E126" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="F126" t="n">
-        <v>30.5</v>
+        <v>38</v>
       </c>
       <c r="G126" t="n">
         <v>7.8</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="J126" t="n">
         <v>2</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L126" t="inlineStr"/>
@@ -6983,12 +7123,12 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr"/>
@@ -6998,33 +7138,33 @@
     <row r="127">
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="n">
+        <v>7</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>43</v>
+      </c>
+      <c r="G127" t="n">
         <v>8</v>
-      </c>
-      <c r="C127" t="n">
-        <v>2</v>
-      </c>
-      <c r="D127" t="n">
-        <v>2</v>
-      </c>
-      <c r="E127" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="F127" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="G127" t="n">
-        <v>7.8</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="J127" t="n">
         <v>2</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L127" t="inlineStr"/>
@@ -7032,12 +7172,12 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr"/>
@@ -7047,29 +7187,29 @@
     <row r="128">
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="E128" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="F128" t="n">
-        <v>38.3</v>
+        <v>24</v>
       </c>
       <c r="G128" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -7096,29 +7236,29 @@
     <row r="129">
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="C129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="E129" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="F129" t="n">
-        <v>45.1</v>
+        <v>39.6</v>
       </c>
       <c r="G129" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
         <v>1.2</v>
       </c>
       <c r="J129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -7145,26 +7285,26 @@
     <row r="130">
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E130" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="F130" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G130" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="J130" t="n">
         <v>2</v>
@@ -7194,33 +7334,33 @@
     <row r="131">
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="F131" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G131" t="n">
         <v>8</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L131" t="inlineStr"/>
@@ -7228,12 +7368,12 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr"/>
@@ -7243,33 +7383,33 @@
     <row r="132">
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="n">
-        <v>8.199999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G132" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L132" t="inlineStr"/>
@@ -7292,26 +7432,26 @@
     <row r="133">
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="n">
-        <v>6.3</v>
+        <v>10</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F133" t="n">
-        <v>39.6</v>
+        <v>42.5</v>
       </c>
       <c r="G133" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="J133" t="n">
         <v>3</v>
@@ -7326,12 +7466,12 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr"/>
@@ -7341,29 +7481,29 @@
     <row r="134">
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E134" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F134" t="n">
-        <v>40</v>
+        <v>41.5</v>
       </c>
       <c r="G134" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -7375,12 +7515,12 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr"/>
@@ -7390,29 +7530,29 @@
     <row r="135">
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F135" t="n">
-        <v>10</v>
+        <v>31.5</v>
       </c>
       <c r="G135" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -7424,12 +7564,12 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr"/>
@@ -7439,33 +7579,33 @@
     <row r="136">
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F136" t="n">
-        <v>5</v>
+        <v>38.1</v>
       </c>
       <c r="G136" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L136" t="inlineStr"/>
@@ -7491,23 +7631,23 @@
         <v>10</v>
       </c>
       <c r="C137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="F137" t="n">
-        <v>42.5</v>
+        <v>29.5</v>
       </c>
       <c r="G137" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
         <v>3</v>
@@ -7522,12 +7662,12 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr"/>
@@ -7540,23 +7680,23 @@
         <v>10</v>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F138" t="n">
-        <v>41.5</v>
+        <v>40.5</v>
       </c>
       <c r="G138" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J138" t="n">
         <v>3</v>
@@ -7571,12 +7711,12 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr"/>
@@ -7586,29 +7726,29 @@
     <row r="139">
       <c r="A139" t="inlineStr"/>
       <c r="B139" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="C139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F139" t="n">
-        <v>31.5</v>
+        <v>37.5</v>
       </c>
       <c r="G139" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -7620,12 +7760,12 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr"/>
@@ -7635,26 +7775,26 @@
     <row r="140">
       <c r="A140" t="inlineStr"/>
       <c r="B140" t="n">
+        <v>10</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3</v>
+      </c>
+      <c r="F140" t="n">
+        <v>30</v>
+      </c>
+      <c r="G140" t="n">
         <v>8</v>
-      </c>
-      <c r="C140" t="n">
-        <v>3</v>
-      </c>
-      <c r="D140" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E140" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F140" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="G140" t="n">
-        <v>7.8</v>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="J140" t="n">
         <v>3</v>
@@ -7684,26 +7824,26 @@
     <row r="141">
       <c r="A141" t="inlineStr"/>
       <c r="B141" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="F141" t="n">
-        <v>29.5</v>
+        <v>40</v>
       </c>
       <c r="G141" t="n">
         <v>8</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
         <v>3</v>
@@ -7733,29 +7873,29 @@
     <row r="142">
       <c r="A142" t="inlineStr"/>
       <c r="B142" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="G142" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -7767,12 +7907,12 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr"/>
@@ -7782,29 +7922,29 @@
     <row r="143">
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>37.5</v>
+        <v>31</v>
       </c>
       <c r="G143" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -7816,12 +7956,12 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr"/>
@@ -7831,7 +7971,7 @@
     <row r="144">
       <c r="A144" t="inlineStr"/>
       <c r="B144" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C144" t="n">
         <v>2</v>
@@ -7840,20 +7980,20 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F144" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G144" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -7865,12 +8005,12 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr"/>
@@ -7880,26 +8020,26 @@
     <row r="145">
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E145" t="n">
         <v>1.5</v>
       </c>
       <c r="F145" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G145" t="n">
         <v>8</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J145" t="n">
         <v>3</v>
@@ -7914,12 +8054,12 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr"/>
@@ -7929,26 +8069,26 @@
     <row r="146">
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="C146" t="n">
         <v>2</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F146" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G146" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
         <v>2</v>
@@ -7978,26 +8118,26 @@
     <row r="147">
       <c r="A147" t="inlineStr"/>
       <c r="B147" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="C147" t="n">
         <v>2</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F147" t="n">
         <v>31</v>
       </c>
       <c r="G147" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="J147" t="n">
         <v>2</v>
@@ -8027,29 +8167,29 @@
     <row r="148">
       <c r="A148" t="inlineStr"/>
       <c r="B148" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="E148" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F148" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="G148" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -8085,17 +8225,17 @@
         <v>1.5</v>
       </c>
       <c r="E149" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="G149" t="n">
         <v>8</v>
       </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
         <v>3</v>
@@ -8125,26 +8265,26 @@
     <row r="150">
       <c r="A150" t="inlineStr"/>
       <c r="B150" t="n">
-        <v>11.5</v>
+        <v>10.7</v>
       </c>
       <c r="C150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="E150" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="F150" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G150" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J150" t="n">
         <v>2</v>
@@ -8174,29 +8314,29 @@
     <row r="151">
       <c r="A151" t="inlineStr"/>
       <c r="B151" t="n">
-        <v>11.5</v>
+        <v>3</v>
       </c>
       <c r="C151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G151" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="J151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -8208,12 +8348,12 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr"/>
@@ -8223,29 +8363,29 @@
     <row r="152">
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D152" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="F152" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G152" t="n">
         <v>7</v>
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -8257,12 +8397,12 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr"/>
@@ -8272,29 +8412,29 @@
     <row r="153">
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>37.5</v>
+        <v>41.5</v>
       </c>
       <c r="G153" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -8306,12 +8446,12 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr"/>
@@ -8321,22 +8461,22 @@
     <row r="154">
       <c r="A154" t="inlineStr"/>
       <c r="B154" t="n">
-        <v>10.7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="E154" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="F154" t="n">
-        <v>43</v>
+        <v>37.8</v>
       </c>
       <c r="G154" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
@@ -8355,12 +8495,12 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr"/>
@@ -8370,29 +8510,29 @@
     <row r="155">
       <c r="A155" t="inlineStr"/>
       <c r="B155" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F155" t="n">
-        <v>22</v>
+        <v>38.8</v>
       </c>
       <c r="G155" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="J155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -8419,29 +8559,29 @@
     <row r="156">
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E156" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="F156" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G156" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -8471,23 +8611,23 @@
         <v>8</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F157" t="n">
-        <v>41.5</v>
+        <v>30</v>
       </c>
       <c r="G157" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="J157" t="n">
         <v>2</v>
@@ -8520,23 +8660,23 @@
         <v>8</v>
       </c>
       <c r="C158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="F158" t="n">
-        <v>37.8</v>
+        <v>40</v>
       </c>
       <c r="G158" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="J158" t="n">
         <v>2</v>
@@ -8566,29 +8706,29 @@
     <row r="159">
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C159" t="n">
         <v>2</v>
       </c>
       <c r="D159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>38.8</v>
+        <v>36.5</v>
       </c>
       <c r="G159" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -8615,26 +8755,26 @@
     <row r="160">
       <c r="A160" t="inlineStr"/>
       <c r="B160" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="C160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G160" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
         <v>2</v>
@@ -8664,26 +8804,26 @@
     <row r="161">
       <c r="A161" t="inlineStr"/>
       <c r="B161" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C161" t="n">
         <v>2</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E161" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="F161" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G161" t="n">
         <v>7</v>
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="J161" t="n">
         <v>2</v>
@@ -8713,7 +8853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr"/>
       <c r="B162" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -8722,17 +8862,17 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G162" t="n">
         <v>7</v>
       </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="J162" t="n">
         <v>2</v>
@@ -8747,12 +8887,12 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr"/>
@@ -8762,10 +8902,10 @@
     <row r="163">
       <c r="A163" t="inlineStr"/>
       <c r="B163" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -8774,17 +8914,17 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>36.5</v>
+        <v>35</v>
       </c>
       <c r="G163" t="n">
         <v>7</v>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -8796,12 +8936,12 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q163" t="inlineStr"/>
@@ -8811,7 +8951,7 @@
     <row r="164">
       <c r="A164" t="inlineStr"/>
       <c r="B164" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -8823,14 +8963,14 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G164" t="n">
         <v>7</v>
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J164" t="n">
         <v>2</v>
@@ -8845,12 +8985,12 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr"/>
@@ -8860,26 +9000,26 @@
     <row r="165">
       <c r="A165" t="inlineStr"/>
       <c r="B165" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G165" t="n">
         <v>7</v>
       </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="J165" t="n">
         <v>2</v>
@@ -8894,12 +9034,12 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr"/>
@@ -9114,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F170" t="n">
         <v>35</v>
@@ -9163,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F171" t="n">
         <v>35</v>
@@ -9212,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F172" t="n">
         <v>35</v>
@@ -9222,7 +9362,7 @@
       </c>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J172" t="n">
         <v>2</v>
@@ -9261,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F173" t="n">
         <v>35</v>
@@ -9271,7 +9411,7 @@
       </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J173" t="n">
         <v>2</v>
@@ -9320,7 +9460,7 @@
       </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J174" t="n">
         <v>2</v>
@@ -9369,7 +9509,7 @@
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J175" t="n">
         <v>2</v>
@@ -9555,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
         <v>35</v>
@@ -9565,7 +9705,7 @@
       </c>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J179" t="n">
         <v>2</v>
@@ -9604,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
         <v>35</v>
@@ -9614,7 +9754,7 @@
       </c>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J180" t="n">
         <v>2</v>
@@ -9653,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F181" t="n">
         <v>35</v>
@@ -9663,7 +9803,7 @@
       </c>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J181" t="n">
         <v>2</v>
@@ -9702,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
         <v>35</v>
@@ -9712,7 +9852,7 @@
       </c>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J182" t="n">
         <v>2</v>
@@ -10104,7 +10244,7 @@
       </c>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J190" t="n">
         <v>2</v>
@@ -10143,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F191" t="n">
         <v>35</v>
@@ -10153,7 +10293,7 @@
       </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J191" t="n">
         <v>2</v>
@@ -10192,7 +10332,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F192" t="n">
         <v>35</v>
@@ -10202,7 +10342,7 @@
       </c>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J192" t="n">
         <v>2</v>
@@ -10241,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F193" t="n">
         <v>35</v>
@@ -10251,7 +10391,7 @@
       </c>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J193" t="n">
         <v>2</v>
@@ -10290,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F194" t="n">
         <v>35</v>
@@ -10300,7 +10440,7 @@
       </c>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J194" t="n">
         <v>2</v>
@@ -10447,7 +10587,7 @@
       </c>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="J197" t="n">
         <v>2</v>
@@ -10489,14 +10629,14 @@
         <v>1.2</v>
       </c>
       <c r="F198" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G198" t="n">
         <v>7</v>
       </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J198" t="n">
         <v>2</v>
@@ -10523,202 +10663,6 @@
       <c r="R198" t="inlineStr"/>
       <c r="S198" t="inlineStr"/>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr"/>
-      <c r="B199" t="n">
-        <v>10</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0</v>
-      </c>
-      <c r="E199" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F199" t="n">
-        <v>35</v>
-      </c>
-      <c r="G199" t="n">
-        <v>7</v>
-      </c>
-      <c r="H199" t="inlineStr"/>
-      <c r="I199" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J199" t="n">
-        <v>2</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="inlineStr"/>
-      <c r="N199" t="inlineStr"/>
-      <c r="O199" t="inlineStr">
-        <is>
-          <t>V4</t>
-        </is>
-      </c>
-      <c r="P199" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr"/>
-      <c r="B200" t="n">
-        <v>10</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0</v>
-      </c>
-      <c r="E200" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F200" t="n">
-        <v>35</v>
-      </c>
-      <c r="G200" t="n">
-        <v>7</v>
-      </c>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J200" t="n">
-        <v>2</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="inlineStr"/>
-      <c r="N200" t="inlineStr"/>
-      <c r="O200" t="inlineStr">
-        <is>
-          <t>V4</t>
-        </is>
-      </c>
-      <c r="P200" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr"/>
-      <c r="B201" t="n">
-        <v>10</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0</v>
-      </c>
-      <c r="E201" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F201" t="n">
-        <v>35</v>
-      </c>
-      <c r="G201" t="n">
-        <v>7</v>
-      </c>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J201" t="n">
-        <v>2</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="inlineStr"/>
-      <c r="N201" t="inlineStr"/>
-      <c r="O201" t="inlineStr">
-        <is>
-          <t>V4</t>
-        </is>
-      </c>
-      <c r="P201" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr"/>
-      <c r="B202" t="n">
-        <v>10</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1</v>
-      </c>
-      <c r="D202" t="n">
-        <v>0</v>
-      </c>
-      <c r="E202" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F202" t="n">
-        <v>10</v>
-      </c>
-      <c r="G202" t="n">
-        <v>7</v>
-      </c>
-      <c r="H202" t="inlineStr"/>
-      <c r="I202" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J202" t="n">
-        <v>2</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>Unilateral</t>
-        </is>
-      </c>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="inlineStr"/>
-      <c r="N202" t="inlineStr"/>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>V4</t>
-        </is>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_itajai_test_atualizada.xlsx
+++ b/table_itajai_test_atualizada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S198"/>
+  <dimension ref="A1:S208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +532,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>7</v>
@@ -541,22 +541,22 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -573,12 +573,12 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -597,7 +597,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
         <v>7</v>
@@ -606,13 +606,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -638,12 +638,12 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -662,38 +662,38 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
         <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -703,17 +703,17 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
+          <t>AGN7055D4</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -721,44 +721,44 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Itajai 3 - AGN7050D4</t>
+          <t>Itajai 3 - AGN7055D4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
         <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -768,17 +768,17 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
+          <t>AGN7055D4</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -786,44 +786,44 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Itajai 4 - AGN7050D4</t>
+          <t>Itajai 4 - AGN7055D4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F6" t="n">
-        <v>27</v>
+        <v>46.5</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
         <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -833,17 +833,17 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>AGN7100D4</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -851,31 +851,31 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Itajai 5 - AGN7026D4</t>
+          <t>Itajai 5 - AGN7100D4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
         <v>5</v>
@@ -888,7 +888,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -898,17 +898,17 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>AGN7090D4</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -916,19 +916,19 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Itajai 6 - AGN7026D4</t>
+          <t>Itajai 6 - AGN7090D4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -937,23 +937,23 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -963,17 +963,17 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>AGN7060D4</t>
+          <t>AGN7080D4</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -981,19 +981,19 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Itajai 7 - AGN7060D4</t>
+          <t>Itajai 7 - AGN7080D4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="B9" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1002,23 +1002,23 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>14</v>
+        <v>40.5</v>
       </c>
       <c r="G9" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H9" t="n">
         <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1028,17 +1028,17 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>AGN7090D4</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1046,44 +1046,44 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Itajai 8 - AGN7026D4</t>
+          <t>Itajai 8 - AGN7090D4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H10" t="n">
         <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>3</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1093,7 +1093,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>AGN7070D4</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1111,19 +1111,19 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Itajai 9 - AGN7026D4</t>
+          <t>Itajai 9 - AGN7070D4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="B11" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1132,23 +1132,23 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G11" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H11" t="n">
         <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1158,7 +1158,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>AGN7030D4</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1176,37 +1176,37 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Itajai 10 - AGN7040D4</t>
+          <t>Itajai 10 - AGN7030D4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B12" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F12" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G12" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
+          <t>AGN7026D4</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1241,31 +1241,31 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Itajai 11 - AGN7050D4</t>
+          <t>Itajai 11 - AGN7026D4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="B13" t="n">
-        <v>10.05</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
         <v>5</v>
@@ -1312,31 +1312,31 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="B14" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F14" t="n">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G14" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>AGN7050D4</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1371,44 +1371,44 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Itajai 13 - AGN7040D4</t>
+          <t>Itajai 13 - AGN7050D4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F15" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
         <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1418,17 +1418,17 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>AGN7090D4</t>
+          <t>AGN7050D4</t>
         </is>
       </c>
       <c r="R15" t="n">
@@ -1436,44 +1436,44 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Itajai 14 - AGN7090D4</t>
+          <t>Itajai 14 - AGN7050D4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="B16" t="n">
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E16" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
         <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J16" t="n">
         <v>2</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1483,17 +1483,17 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>AGN7060D4</t>
+          <t>AGN7026D4</t>
         </is>
       </c>
       <c r="R16" t="n">
@@ -1501,13 +1501,13 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Itajai 15 - AGN7060D4</t>
+          <t>Itajai 15 - AGN7026D4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B17" t="n">
         <v>7</v>
@@ -1516,29 +1516,29 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F17" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
         <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1548,17 +1548,17 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>AGN7080D4</t>
+          <t>AGN7026D4</t>
         </is>
       </c>
       <c r="R17" t="n">
@@ -1566,19 +1566,19 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Itajai 16 - AGN7080D4</t>
+          <t>Itajai 16 - AGN7026D4</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1587,23 +1587,23 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H18" t="n">
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J18" t="n">
         <v>2</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1613,7 +1613,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
+          <t>AGN7055D4</t>
         </is>
       </c>
       <c r="R18" t="n">
@@ -1631,19 +1631,19 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Itajai 17 - AGN7050D4</t>
+          <t>Itajai 17 - AGN7055D4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1652,23 +1652,23 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1678,7 +1678,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>AGN7070D4</t>
+          <t>AGN7026D4</t>
         </is>
       </c>
       <c r="R19" t="n">
@@ -1696,28 +1696,28 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Itajai 18 - AGN7070D4</t>
+          <t>Itajai 18 - AGN7026D4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
         <v>7</v>
@@ -1726,14 +1726,14 @@
         <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1743,7 +1743,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>AGN7026D4</t>
         </is>
       </c>
       <c r="R20" t="n">
@@ -1761,19 +1761,19 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Itajai 19 - AGN7040D4</t>
+          <t>Itajai 19 - AGN7026D4</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1782,23 +1782,23 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H21" t="n">
         <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1808,7 +1808,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1816,29 +1816,19 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>AGN7040D4</t>
-        </is>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Itajai 20 - AGN7040D4</t>
-        </is>
-      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1847,23 +1837,23 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H22" t="n">
         <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="J22" t="n">
         <v>2</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1873,7 +1863,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1881,29 +1871,19 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>AGN7060D4</t>
-        </is>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Itajai 21 - AGN7060D4</t>
-        </is>
-      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="B23" t="n">
-        <v>9</v>
+        <v>10.05</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1912,23 +1892,23 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G23" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J23" t="n">
         <v>2</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1938,7 +1918,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -1946,29 +1926,19 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>AGN7050D4</t>
-        </is>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Itajai 22 - AGN7050D4</t>
-        </is>
-      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1977,23 +1947,23 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H24" t="n">
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="J24" t="n">
         <v>2</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -2003,7 +1973,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2011,23 +1981,13 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>AGN7050D4</t>
-        </is>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Itajai 23 - AGN7050D4</t>
-        </is>
-      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B25" t="n">
         <v>9</v>
@@ -2042,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H25" t="n">
         <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
         <v>2</v>
@@ -2068,55 +2028,45 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>AGN7050D4</t>
-        </is>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Itajai 24 - AGN7050D4</t>
-        </is>
-      </c>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="B26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F26" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H26" t="n">
         <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="J26" t="n">
         <v>2</v>
@@ -2133,34 +2083,24 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>AGN7050D4</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Itajai 25 - AGN7050D4</t>
-        </is>
-      </c>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -2172,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G27" t="n">
         <v>7</v>
@@ -2184,7 +2124,7 @@
         <v>1.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2198,30 +2138,22 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>AGN7060D4</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Itajai 26 - AGN7060D4</t>
-        </is>
-      </c>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="n">
+        <v>120</v>
+      </c>
       <c r="B28" t="n">
         <v>9</v>
       </c>
@@ -2235,14 +2167,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G28" t="n">
         <v>7</v>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
       <c r="I28" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>2</v>
@@ -2252,7 +2186,9 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
@@ -2265,22 +2201,16 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>AGN7030D4</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Itajai 27 - AGN7030D4</t>
-        </is>
-      </c>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="n">
+        <v>126</v>
+      </c>
       <c r="B29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -2289,58 +2219,56 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G29" t="n">
         <v>7</v>
       </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
       <c r="I29" t="n">
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>AGN7070D4</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Itajai 28 - AGN7070D4</t>
-        </is>
-      </c>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="n">
+        <v>128</v>
+      </c>
       <c r="B30" t="n">
         <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2349,14 +2277,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G30" t="n">
         <v>7</v>
       </c>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
         <v>2</v>
@@ -2366,7 +2296,9 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
@@ -2379,25 +2311,19 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>Itajai 29 - AGN7026D4</t>
-        </is>
-      </c>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="n">
+        <v>132</v>
+      </c>
       <c r="B31" t="n">
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2406,24 +2332,28 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G31" t="n">
         <v>7</v>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
@@ -2436,22 +2366,16 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>AGN7070D4</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>Itajai 30 - AGN7070D4</t>
-        </is>
-      </c>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="n">
+        <v>133</v>
+      </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
@@ -2468,47 +2392,45 @@
       <c r="G32" t="n">
         <v>7</v>
       </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
       <c r="I32" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>NAO ATENDE</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Itajai 31 - NAO ATENDE</t>
-        </is>
-      </c>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" t="n">
+        <v>136</v>
+      </c>
       <c r="B33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
@@ -2520,71 +2442,71 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G33" t="n">
         <v>7</v>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
       <c r="I33" t="n">
         <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>AGN7090D4</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Itajai 32 - AGN7090D4</t>
-        </is>
-      </c>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" t="n">
+        <v>140</v>
+      </c>
       <c r="B34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G34" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
         <v>2</v>
@@ -2594,38 +2516,34 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Itajai 33 - AGN7080D4</t>
-        </is>
-      </c>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" t="n">
+        <v>142</v>
+      </c>
       <c r="B35" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2637,52 +2555,50 @@
         <v>40</v>
       </c>
       <c r="G35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>AGN7070D4</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Itajai 34 - AGN7070D4</t>
-        </is>
-      </c>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="n">
+        <v>144</v>
+      </c>
       <c r="B36" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2691,34 +2607,38 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>40.5</v>
+        <v>38</v>
       </c>
       <c r="G36" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H36" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
@@ -2726,12 +2646,14 @@
       <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" t="n">
+        <v>148</v>
+      </c>
       <c r="B37" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2740,34 +2662,38 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>25.5</v>
+        <v>44</v>
       </c>
       <c r="G37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
@@ -2777,10 +2703,10 @@
     <row r="38">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -2789,17 +2715,17 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>38.5</v>
+        <v>25</v>
       </c>
       <c r="G38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2811,12 +2737,12 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
@@ -2826,29 +2752,29 @@
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="n">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F39" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2875,7 +2801,7 @@
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -2887,21 +2813,21 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>25.5</v>
+        <v>12</v>
       </c>
       <c r="G40" t="n">
         <v>7</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>2</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
@@ -2909,12 +2835,12 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
@@ -2924,7 +2850,7 @@
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -2933,20 +2859,20 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>39.5</v>
+        <v>50</v>
       </c>
       <c r="G41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2958,12 +2884,12 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -2973,10 +2899,10 @@
     <row r="42">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -2985,17 +2911,17 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3022,10 +2948,10 @@
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3034,21 +2960,21 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G43" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -3074,26 +3000,26 @@
         <v>8</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="F44" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G44" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3120,7 +3046,7 @@
     <row r="45">
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="n">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -3132,17 +3058,17 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3154,12 +3080,12 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
@@ -3169,10 +3095,10 @@
     <row r="46">
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -3181,17 +3107,17 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>11</v>
+        <v>40.5</v>
       </c>
       <c r="G46" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3203,12 +3129,12 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
@@ -3218,29 +3144,29 @@
     <row r="47">
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="n">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>35.4</v>
+        <v>25.5</v>
       </c>
       <c r="G47" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -3267,7 +3193,7 @@
     <row r="48">
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -3276,17 +3202,17 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>22.5</v>
+        <v>38.5</v>
       </c>
       <c r="G48" t="n">
         <v>7.5</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
         <v>3</v>
@@ -3316,29 +3242,29 @@
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="n">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -3365,33 +3291,33 @@
     <row r="50">
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>38</v>
+        <v>25.5</v>
       </c>
       <c r="G50" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
         <v>2</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -3399,12 +3325,12 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
@@ -3414,33 +3340,33 @@
     <row r="51">
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>27</v>
+        <v>39.5</v>
       </c>
       <c r="G51" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -3448,12 +3374,12 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr"/>
@@ -3469,27 +3395,27 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G52" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -3497,12 +3423,12 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr"/>
@@ -3512,33 +3438,33 @@
     <row r="53">
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G53" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
         <v>2</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
@@ -3546,12 +3472,12 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr"/>
@@ -3561,33 +3487,33 @@
     <row r="54">
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G54" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
@@ -3595,12 +3521,12 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr"/>
@@ -3610,33 +3536,33 @@
     <row r="55">
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G55" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3644,7 +3570,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -3659,33 +3585,33 @@
     <row r="56">
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G56" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
         <v>2</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
@@ -3693,7 +3619,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -3708,33 +3634,33 @@
     <row r="57">
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="E57" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>38</v>
+        <v>35.4</v>
       </c>
       <c r="G57" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
@@ -3742,12 +3668,12 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr"/>
@@ -3757,33 +3683,33 @@
     <row r="58">
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
-        <v>38</v>
+        <v>22.5</v>
       </c>
       <c r="G58" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
@@ -3791,12 +3717,12 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
@@ -3806,33 +3732,33 @@
     <row r="59">
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="F59" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G59" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Bilateral frontal</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
@@ -3840,12 +3766,12 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr"/>
@@ -3867,7 +3793,7 @@
         <v>3.8</v>
       </c>
       <c r="F60" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="G60" t="n">
         <v>7.8</v>
@@ -3916,7 +3842,7 @@
         <v>3.8</v>
       </c>
       <c r="F61" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G61" t="n">
         <v>7.8</v>
@@ -3965,7 +3891,7 @@
         <v>3.8</v>
       </c>
       <c r="F62" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G62" t="n">
         <v>7.8</v>
@@ -4014,7 +3940,7 @@
         <v>3.8</v>
       </c>
       <c r="F63" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G63" t="n">
         <v>7.8</v>
@@ -4028,7 +3954,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
@@ -4063,7 +3989,7 @@
         <v>3.8</v>
       </c>
       <c r="F64" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G64" t="n">
         <v>7.8</v>
@@ -4112,7 +4038,7 @@
         <v>3.8</v>
       </c>
       <c r="F65" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G65" t="n">
         <v>7.8</v>
@@ -4126,7 +4052,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
@@ -4161,7 +4087,7 @@
         <v>3.8</v>
       </c>
       <c r="F66" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G66" t="n">
         <v>7.8</v>
@@ -4175,7 +4101,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
@@ -4210,7 +4136,7 @@
         <v>3.8</v>
       </c>
       <c r="F67" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G67" t="n">
         <v>7.8</v>
@@ -4224,7 +4150,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L67" t="inlineStr"/>
@@ -4247,33 +4173,33 @@
     <row r="68">
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G68" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="J68" t="n">
         <v>2</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
@@ -4281,12 +4207,12 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr"/>
@@ -4296,33 +4222,33 @@
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F69" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G69" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
@@ -4330,7 +4256,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -4345,33 +4271,33 @@
     <row r="70">
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F70" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G70" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J70" t="n">
         <v>2</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
@@ -4379,7 +4305,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -4394,33 +4320,33 @@
     <row r="71">
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F71" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G71" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J71" t="n">
         <v>2</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L71" t="inlineStr"/>
@@ -4428,7 +4354,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -4443,33 +4369,33 @@
     <row r="72">
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="E72" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="F72" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G72" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="J72" t="n">
         <v>2</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L72" t="inlineStr"/>
@@ -4477,7 +4403,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -4492,33 +4418,33 @@
     <row r="73">
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E73" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="F73" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G73" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="J73" t="n">
         <v>2</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
@@ -4526,7 +4452,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -4541,33 +4467,33 @@
     <row r="74">
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="F74" t="n">
-        <v>35.5</v>
+        <v>40</v>
       </c>
       <c r="G74" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral frontal</t>
         </is>
       </c>
       <c r="L74" t="inlineStr"/>
@@ -4575,12 +4501,12 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr"/>
@@ -4590,33 +4516,33 @@
     <row r="75">
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F75" t="n">
-        <v>31.5</v>
+        <v>37</v>
       </c>
       <c r="G75" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L75" t="inlineStr"/>
@@ -4624,12 +4550,12 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr"/>
@@ -4639,33 +4565,33 @@
     <row r="76">
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F76" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G76" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L76" t="inlineStr"/>
@@ -4673,12 +4599,12 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr"/>
@@ -4688,33 +4614,33 @@
     <row r="77">
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="F77" t="n">
-        <v>30.5</v>
+        <v>40</v>
       </c>
       <c r="G77" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
@@ -4722,12 +4648,12 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr"/>
@@ -4737,29 +4663,29 @@
     <row r="78">
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
-        <v>36.5</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -4786,33 +4712,33 @@
     <row r="79">
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G79" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
@@ -4820,7 +4746,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -4835,33 +4761,33 @@
     <row r="80">
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G80" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
         <v>2</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L80" t="inlineStr"/>
@@ -4869,7 +4795,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -4884,33 +4810,33 @@
     <row r="81">
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G81" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
         <v>2</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L81" t="inlineStr"/>
@@ -4918,7 +4844,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -4933,33 +4859,33 @@
     <row r="82">
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="E82" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="F82" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G82" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="J82" t="n">
         <v>2</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L82" t="inlineStr"/>
@@ -4967,7 +4893,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -4982,33 +4908,33 @@
     <row r="83">
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="F83" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G83" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="J83" t="n">
         <v>2</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L83" t="inlineStr"/>
@@ -5016,7 +4942,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -5031,33 +4957,33 @@
     <row r="84">
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>42</v>
+        <v>35.5</v>
       </c>
       <c r="G84" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="J84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L84" t="inlineStr"/>
@@ -5065,12 +4991,12 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr"/>
@@ -5080,33 +5006,33 @@
     <row r="85">
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>42</v>
+        <v>31.5</v>
       </c>
       <c r="G85" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L85" t="inlineStr"/>
@@ -5114,12 +5040,12 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr"/>
@@ -5129,33 +5055,33 @@
     <row r="86">
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G86" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L86" t="inlineStr"/>
@@ -5163,12 +5089,12 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr"/>
@@ -5178,33 +5104,33 @@
     <row r="87">
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
-        <v>34</v>
+        <v>30.5</v>
       </c>
       <c r="G87" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="J87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L87" t="inlineStr"/>
@@ -5212,12 +5138,12 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr"/>
@@ -5227,33 +5153,33 @@
     <row r="88">
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
-        <v>39</v>
+        <v>36.5</v>
       </c>
       <c r="G88" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L88" t="inlineStr"/>
@@ -5261,12 +5187,12 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr"/>
@@ -5337,7 +5263,7 @@
         <v>3.8</v>
       </c>
       <c r="F90" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G90" t="n">
         <v>7.8</v>
@@ -5386,14 +5312,14 @@
         <v>3.8</v>
       </c>
       <c r="F91" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G91" t="n">
         <v>7.8</v>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J91" t="n">
         <v>2</v>
@@ -5435,7 +5361,7 @@
         <v>3.8</v>
       </c>
       <c r="F92" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G92" t="n">
         <v>7.8</v>
@@ -5478,20 +5404,20 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E93" t="n">
         <v>3.8</v>
       </c>
       <c r="F93" t="n">
-        <v>38.5</v>
+        <v>40</v>
       </c>
       <c r="G93" t="n">
         <v>7.8</v>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="J93" t="n">
         <v>2</v>
@@ -5527,20 +5453,20 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E94" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="F94" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G94" t="n">
         <v>7.8</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="J94" t="n">
         <v>2</v>
@@ -5576,20 +5502,20 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E95" t="n">
         <v>3.8</v>
       </c>
       <c r="F95" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G95" t="n">
         <v>7.8</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
         <v>2</v>
@@ -5625,20 +5551,20 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E96" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="F96" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G96" t="n">
         <v>7.8</v>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="J96" t="n">
         <v>2</v>
@@ -5674,20 +5600,20 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E97" t="n">
         <v>3.8</v>
       </c>
       <c r="F97" t="n">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="G97" t="n">
         <v>7.8</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
         <v>2</v>
@@ -5723,20 +5649,20 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E98" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="F98" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G98" t="n">
         <v>7.8</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
         <v>2</v>
@@ -5772,20 +5698,20 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E99" t="n">
         <v>3.8</v>
       </c>
       <c r="F99" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G99" t="n">
         <v>7.8</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="J99" t="n">
         <v>2</v>
@@ -5821,20 +5747,20 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E100" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="F100" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G100" t="n">
         <v>7.8</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="J100" t="n">
         <v>2</v>
@@ -5870,20 +5796,20 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E101" t="n">
         <v>3.8</v>
       </c>
       <c r="F101" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G101" t="n">
         <v>7.8</v>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
         <v>2</v>
@@ -5919,20 +5845,20 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E102" t="n">
         <v>3.8</v>
       </c>
       <c r="F102" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G102" t="n">
         <v>7.8</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J102" t="n">
         <v>2</v>
@@ -5974,14 +5900,14 @@
         <v>3.8</v>
       </c>
       <c r="F103" t="n">
-        <v>32</v>
+        <v>38.5</v>
       </c>
       <c r="G103" t="n">
         <v>7.8</v>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J103" t="n">
         <v>2</v>
@@ -6020,17 +5946,17 @@
         <v>3.5</v>
       </c>
       <c r="E104" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="F104" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G104" t="n">
         <v>7.8</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J104" t="n">
         <v>2</v>
@@ -6072,14 +5998,14 @@
         <v>3.8</v>
       </c>
       <c r="F105" t="n">
-        <v>39.5</v>
+        <v>36</v>
       </c>
       <c r="G105" t="n">
         <v>7.8</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J105" t="n">
         <v>2</v>
@@ -6118,17 +6044,17 @@
         <v>3.5</v>
       </c>
       <c r="E106" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="F106" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G106" t="n">
         <v>7.8</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J106" t="n">
         <v>2</v>
@@ -6170,14 +6096,14 @@
         <v>3.8</v>
       </c>
       <c r="F107" t="n">
-        <v>38</v>
+        <v>34.5</v>
       </c>
       <c r="G107" t="n">
         <v>7.8</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J107" t="n">
         <v>2</v>
@@ -6216,17 +6142,17 @@
         <v>3.5</v>
       </c>
       <c r="E108" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="F108" t="n">
-        <v>39.8</v>
+        <v>13</v>
       </c>
       <c r="G108" t="n">
         <v>7.8</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J108" t="n">
         <v>2</v>
@@ -6268,7 +6194,7 @@
         <v>3.8</v>
       </c>
       <c r="F109" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G109" t="n">
         <v>7.8</v>
@@ -6314,17 +6240,17 @@
         <v>3.5</v>
       </c>
       <c r="E110" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="F110" t="n">
-        <v>39.5</v>
+        <v>13</v>
       </c>
       <c r="G110" t="n">
         <v>7.8</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="J110" t="n">
         <v>2</v>
@@ -6366,14 +6292,14 @@
         <v>3.8</v>
       </c>
       <c r="F111" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G111" t="n">
         <v>7.8</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J111" t="n">
         <v>2</v>
@@ -6415,14 +6341,14 @@
         <v>3.8</v>
       </c>
       <c r="F112" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G112" t="n">
         <v>7.8</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
         <v>2</v>
@@ -6464,7 +6390,7 @@
         <v>3.8</v>
       </c>
       <c r="F113" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G113" t="n">
         <v>7.8</v>
@@ -6513,14 +6439,14 @@
         <v>3.8</v>
       </c>
       <c r="F114" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G114" t="n">
         <v>7.8</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
         <v>2</v>
@@ -6562,14 +6488,14 @@
         <v>3.8</v>
       </c>
       <c r="F115" t="n">
-        <v>32</v>
+        <v>39.5</v>
       </c>
       <c r="G115" t="n">
         <v>7.8</v>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
         <v>2</v>
@@ -6608,17 +6534,17 @@
         <v>3.5</v>
       </c>
       <c r="E116" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="F116" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G116" t="n">
         <v>7.8</v>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J116" t="n">
         <v>2</v>
@@ -6660,7 +6586,7 @@
         <v>3.8</v>
       </c>
       <c r="F117" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G117" t="n">
         <v>7.8</v>
@@ -6706,17 +6632,17 @@
         <v>3.5</v>
       </c>
       <c r="E118" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="F118" t="n">
-        <v>33</v>
+        <v>39.8</v>
       </c>
       <c r="G118" t="n">
         <v>7.8</v>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J118" t="n">
         <v>2</v>
@@ -6758,7 +6684,7 @@
         <v>3.8</v>
       </c>
       <c r="F119" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G119" t="n">
         <v>7.8</v>
@@ -6804,17 +6730,17 @@
         <v>3.5</v>
       </c>
       <c r="E120" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="F120" t="n">
-        <v>27.5</v>
+        <v>39.5</v>
       </c>
       <c r="G120" t="n">
         <v>7.8</v>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="J120" t="n">
         <v>2</v>
@@ -6856,14 +6782,14 @@
         <v>3.8</v>
       </c>
       <c r="F121" t="n">
-        <v>34.5</v>
+        <v>42</v>
       </c>
       <c r="G121" t="n">
         <v>7.8</v>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J121" t="n">
         <v>2</v>
@@ -6902,17 +6828,17 @@
         <v>3.5</v>
       </c>
       <c r="E122" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="F122" t="n">
-        <v>30.5</v>
+        <v>31</v>
       </c>
       <c r="G122" t="n">
         <v>7.8</v>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="J122" t="n">
         <v>2</v>
@@ -6942,33 +6868,33 @@
     <row r="123">
       <c r="A123" t="inlineStr"/>
       <c r="B123" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E123" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="F123" t="n">
-        <v>45.5</v>
+        <v>24</v>
       </c>
       <c r="G123" t="n">
         <v>7.8</v>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="J123" t="n">
         <v>2</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L123" t="inlineStr"/>
@@ -6976,12 +6902,12 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr"/>
@@ -6991,33 +6917,33 @@
     <row r="124">
       <c r="A124" t="inlineStr"/>
       <c r="B124" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E124" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="F124" t="n">
-        <v>38.3</v>
+        <v>20</v>
       </c>
       <c r="G124" t="n">
         <v>7.8</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="J124" t="n">
         <v>2</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L124" t="inlineStr"/>
@@ -7025,12 +6951,12 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr"/>
@@ -7040,33 +6966,33 @@
     <row r="125">
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E125" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="F125" t="n">
-        <v>45.1</v>
+        <v>32</v>
       </c>
       <c r="G125" t="n">
         <v>7.8</v>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="J125" t="n">
         <v>2</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L125" t="inlineStr"/>
@@ -7074,12 +7000,12 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr"/>
@@ -7089,33 +7015,33 @@
     <row r="126">
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E126" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="F126" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G126" t="n">
         <v>7.8</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="J126" t="n">
         <v>2</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L126" t="inlineStr"/>
@@ -7123,12 +7049,12 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr"/>
@@ -7144,20 +7070,20 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="E127" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="F127" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G127" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J127" t="n">
         <v>2</v>
@@ -7187,33 +7113,33 @@
     <row r="128">
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="E128" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="F128" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G128" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L128" t="inlineStr"/>
@@ -7221,12 +7147,12 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr"/>
@@ -7236,33 +7162,33 @@
     <row r="129">
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="E129" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="F129" t="n">
-        <v>39.6</v>
+        <v>36</v>
       </c>
       <c r="G129" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="J129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L129" t="inlineStr"/>
@@ -7270,12 +7196,12 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr"/>
@@ -7291,16 +7217,16 @@
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E130" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="F130" t="n">
-        <v>40</v>
+        <v>27.5</v>
       </c>
       <c r="G130" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
@@ -7311,7 +7237,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L130" t="inlineStr"/>
@@ -7319,12 +7245,12 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr"/>
@@ -7334,33 +7260,33 @@
     <row r="131">
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E131" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>34.5</v>
       </c>
       <c r="G131" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
         <v>0.2</v>
       </c>
       <c r="J131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L131" t="inlineStr"/>
@@ -7368,12 +7294,12 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr"/>
@@ -7383,26 +7309,26 @@
     <row r="132">
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="F132" t="n">
-        <v>5</v>
+        <v>30.5</v>
       </c>
       <c r="G132" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J132" t="n">
         <v>2</v>
@@ -7417,12 +7343,12 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr"/>
@@ -7432,7 +7358,7 @@
     <row r="133">
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C133" t="n">
         <v>2</v>
@@ -7441,20 +7367,20 @@
         <v>2</v>
       </c>
       <c r="E133" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="F133" t="n">
-        <v>42.5</v>
+        <v>45.5</v>
       </c>
       <c r="G133" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="J133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -7466,12 +7392,12 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr"/>
@@ -7481,7 +7407,7 @@
     <row r="134">
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C134" t="n">
         <v>2</v>
@@ -7490,20 +7416,20 @@
         <v>2</v>
       </c>
       <c r="E134" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="F134" t="n">
-        <v>41.5</v>
+        <v>38.3</v>
       </c>
       <c r="G134" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -7515,12 +7441,12 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr"/>
@@ -7530,7 +7456,7 @@
     <row r="135">
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="C135" t="n">
         <v>2</v>
@@ -7539,17 +7465,17 @@
         <v>2</v>
       </c>
       <c r="E135" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="F135" t="n">
-        <v>31.5</v>
+        <v>45.1</v>
       </c>
       <c r="G135" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="J135" t="n">
         <v>2</v>
@@ -7564,12 +7490,12 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr"/>
@@ -7582,26 +7508,26 @@
         <v>8</v>
       </c>
       <c r="C136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D136" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="E136" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="F136" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="G136" t="n">
         <v>7.8</v>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="J136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -7628,33 +7554,33 @@
     <row r="137">
       <c r="A137" t="inlineStr"/>
       <c r="B137" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="E137" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="F137" t="n">
-        <v>29.5</v>
+        <v>43</v>
       </c>
       <c r="G137" t="n">
         <v>8</v>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L137" t="inlineStr"/>
@@ -7662,12 +7588,12 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr"/>
@@ -7677,26 +7603,26 @@
     <row r="138">
       <c r="A138" t="inlineStr"/>
       <c r="B138" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E138" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F138" t="n">
-        <v>40.5</v>
+        <v>24</v>
       </c>
       <c r="G138" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="J138" t="n">
         <v>3</v>
@@ -7726,26 +7652,26 @@
     <row r="139">
       <c r="A139" t="inlineStr"/>
       <c r="B139" t="n">
-        <v>10</v>
+        <v>6.3</v>
       </c>
       <c r="C139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="E139" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F139" t="n">
-        <v>37.5</v>
+        <v>39.6</v>
       </c>
       <c r="G139" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="J139" t="n">
         <v>3</v>
@@ -7775,29 +7701,29 @@
     <row r="140">
       <c r="A140" t="inlineStr"/>
       <c r="B140" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E140" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F140" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G140" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -7824,7 +7750,7 @@
     <row r="141">
       <c r="A141" t="inlineStr"/>
       <c r="B141" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -7833,17 +7759,17 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F141" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G141" t="n">
         <v>8</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J141" t="n">
         <v>3</v>
@@ -7873,10 +7799,10 @@
     <row r="142">
       <c r="A142" t="inlineStr"/>
       <c r="B142" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="C142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -7885,21 +7811,21 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G142" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J142" t="n">
         <v>2</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Unilateral</t>
+          <t>Bilateral alternada</t>
         </is>
       </c>
       <c r="L142" t="inlineStr"/>
@@ -7907,12 +7833,12 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr"/>
@@ -7922,29 +7848,29 @@
     <row r="143">
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C143" t="n">
         <v>2</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F143" t="n">
-        <v>31</v>
+        <v>42.5</v>
       </c>
       <c r="G143" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="n">
         <v>0.4</v>
       </c>
       <c r="J143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -7971,29 +7897,29 @@
     <row r="144">
       <c r="A144" t="inlineStr"/>
       <c r="B144" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C144" t="n">
         <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E144" t="n">
         <v>2</v>
       </c>
       <c r="F144" t="n">
-        <v>37</v>
+        <v>41.5</v>
       </c>
       <c r="G144" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -8020,29 +7946,29 @@
     <row r="145">
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="C145" t="n">
         <v>2</v>
       </c>
       <c r="D145" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E145" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F145" t="n">
-        <v>50</v>
+        <v>31.5</v>
       </c>
       <c r="G145" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -8069,29 +7995,29 @@
     <row r="146">
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D146" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E146" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F146" t="n">
-        <v>34</v>
+        <v>38.1</v>
       </c>
       <c r="G146" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -8103,12 +8029,12 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr"/>
@@ -8118,29 +8044,29 @@
     <row r="147">
       <c r="A147" t="inlineStr"/>
       <c r="B147" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F147" t="n">
-        <v>31</v>
+        <v>29.5</v>
       </c>
       <c r="G147" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -8152,12 +8078,12 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr"/>
@@ -8170,26 +8096,26 @@
         <v>10</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D148" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="F148" t="n">
-        <v>6</v>
+        <v>40.5</v>
       </c>
       <c r="G148" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -8201,12 +8127,12 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr"/>
@@ -8216,16 +8142,16 @@
     <row r="149">
       <c r="A149" t="inlineStr"/>
       <c r="B149" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D149" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F149" t="n">
         <v>37.5</v>
@@ -8235,7 +8161,7 @@
       </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J149" t="n">
         <v>3</v>
@@ -8250,12 +8176,12 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr"/>
@@ -8265,29 +8191,29 @@
     <row r="150">
       <c r="A150" t="inlineStr"/>
       <c r="B150" t="n">
-        <v>10.7</v>
+        <v>10</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="F150" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G150" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -8299,12 +8225,12 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr"/>
@@ -8314,7 +8240,7 @@
     <row r="151">
       <c r="A151" t="inlineStr"/>
       <c r="B151" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -8323,17 +8249,17 @@
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F151" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G151" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
         <v>3</v>
@@ -8363,29 +8289,29 @@
     <row r="152">
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G152" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="J152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -8397,12 +8323,12 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr"/>
@@ -8412,10 +8338,10 @@
     <row r="153">
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -8424,14 +8350,14 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>41.5</v>
+        <v>31</v>
       </c>
       <c r="G153" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J153" t="n">
         <v>2</v>
@@ -8446,12 +8372,12 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr"/>
@@ -8461,22 +8387,22 @@
     <row r="154">
       <c r="A154" t="inlineStr"/>
       <c r="B154" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C154" t="n">
         <v>2</v>
       </c>
       <c r="D154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="F154" t="n">
-        <v>37.8</v>
+        <v>37</v>
       </c>
       <c r="G154" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
@@ -8495,12 +8421,12 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr"/>
@@ -8510,29 +8436,29 @@
     <row r="155">
       <c r="A155" t="inlineStr"/>
       <c r="B155" t="n">
+        <v>12</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F155" t="n">
+        <v>50</v>
+      </c>
+      <c r="G155" t="n">
         <v>8</v>
-      </c>
-      <c r="C155" t="n">
-        <v>2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>2</v>
-      </c>
-      <c r="E155" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="F155" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="G155" t="n">
-        <v>7.8</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="J155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -8544,12 +8470,12 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr"/>
@@ -8559,7 +8485,7 @@
     <row r="156">
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="C156" t="n">
         <v>2</v>
@@ -8568,17 +8494,17 @@
         <v>2</v>
       </c>
       <c r="E156" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="F156" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G156" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
         <v>2</v>
@@ -8593,12 +8519,12 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr"/>
@@ -8608,26 +8534,26 @@
     <row r="157">
       <c r="A157" t="inlineStr"/>
       <c r="B157" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="C157" t="n">
         <v>2</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E157" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="F157" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G157" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="J157" t="n">
         <v>2</v>
@@ -8642,12 +8568,12 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr"/>
@@ -8657,29 +8583,29 @@
     <row r="158">
       <c r="A158" t="inlineStr"/>
       <c r="B158" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="E158" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="F158" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="G158" t="n">
         <v>7</v>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -8691,12 +8617,12 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr"/>
@@ -8706,29 +8632,29 @@
     <row r="159">
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C159" t="n">
         <v>2</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>36.5</v>
+        <v>37.5</v>
       </c>
       <c r="G159" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -8740,12 +8666,12 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr"/>
@@ -8755,26 +8681,26 @@
     <row r="160">
       <c r="A160" t="inlineStr"/>
       <c r="B160" t="n">
-        <v>5.5</v>
+        <v>10.7</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F160" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G160" t="n">
         <v>7</v>
       </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J160" t="n">
         <v>2</v>
@@ -8789,12 +8715,12 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr"/>
@@ -8804,29 +8730,29 @@
     <row r="161">
       <c r="A161" t="inlineStr"/>
       <c r="B161" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G161" t="n">
         <v>7</v>
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="J161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -8853,29 +8779,29 @@
     <row r="162">
       <c r="A162" t="inlineStr"/>
       <c r="B162" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F162" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G162" t="n">
         <v>7</v>
       </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -8887,12 +8813,12 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr"/>
@@ -8902,7 +8828,7 @@
     <row r="163">
       <c r="A163" t="inlineStr"/>
       <c r="B163" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -8914,14 +8840,14 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>35</v>
+        <v>41.5</v>
       </c>
       <c r="G163" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
         <v>2</v>
@@ -8936,12 +8862,12 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q163" t="inlineStr"/>
@@ -8951,26 +8877,26 @@
     <row r="164">
       <c r="A164" t="inlineStr"/>
       <c r="B164" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F164" t="n">
-        <v>35</v>
+        <v>37.8</v>
       </c>
       <c r="G164" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J164" t="n">
         <v>2</v>
@@ -8985,12 +8911,12 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr"/>
@@ -9000,26 +8926,26 @@
     <row r="165">
       <c r="A165" t="inlineStr"/>
       <c r="B165" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F165" t="n">
-        <v>35</v>
+        <v>38.8</v>
       </c>
       <c r="G165" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="J165" t="n">
         <v>2</v>
@@ -9034,12 +8960,12 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr"/>
@@ -9049,26 +8975,26 @@
     <row r="166">
       <c r="A166" t="inlineStr"/>
       <c r="B166" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F166" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G166" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="J166" t="n">
         <v>2</v>
@@ -9083,12 +9009,12 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr"/>
@@ -9098,26 +9024,26 @@
     <row r="167">
       <c r="A167" t="inlineStr"/>
       <c r="B167" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F167" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G167" t="n">
         <v>7</v>
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="n">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="J167" t="n">
         <v>2</v>
@@ -9132,12 +9058,12 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr"/>
@@ -9147,7 +9073,7 @@
     <row r="168">
       <c r="A168" t="inlineStr"/>
       <c r="B168" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
@@ -9156,17 +9082,17 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F168" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G168" t="n">
         <v>7</v>
       </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="J168" t="n">
         <v>2</v>
@@ -9181,12 +9107,12 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr"/>
@@ -9196,10 +9122,10 @@
     <row r="169">
       <c r="A169" t="inlineStr"/>
       <c r="B169" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -9208,17 +9134,17 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>35</v>
+        <v>36.5</v>
       </c>
       <c r="G169" t="n">
         <v>7</v>
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -9230,12 +9156,12 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr"/>
@@ -9245,7 +9171,7 @@
     <row r="170">
       <c r="A170" t="inlineStr"/>
       <c r="B170" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
@@ -9254,17 +9180,17 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G170" t="n">
         <v>7</v>
       </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J170" t="n">
         <v>2</v>
@@ -9279,12 +9205,12 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr"/>
@@ -9294,26 +9220,26 @@
     <row r="171">
       <c r="A171" t="inlineStr"/>
       <c r="B171" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E171" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F171" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G171" t="n">
         <v>7</v>
       </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="J171" t="n">
         <v>2</v>
@@ -9328,12 +9254,12 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr"/>
@@ -9352,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
         <v>35</v>
@@ -9362,7 +9288,7 @@
       </c>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J172" t="n">
         <v>2</v>
@@ -9401,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
         <v>35</v>
@@ -9411,7 +9337,7 @@
       </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J173" t="n">
         <v>2</v>
@@ -9450,7 +9376,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
         <v>35</v>
@@ -9460,7 +9386,7 @@
       </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J174" t="n">
         <v>2</v>
@@ -9499,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
         <v>35</v>
@@ -9509,7 +9435,7 @@
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J175" t="n">
         <v>2</v>
@@ -9548,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F176" t="n">
         <v>35</v>
@@ -9558,7 +9484,7 @@
       </c>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J176" t="n">
         <v>2</v>
@@ -9597,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
         <v>35</v>
@@ -9607,7 +9533,7 @@
       </c>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J177" t="n">
         <v>2</v>
@@ -9646,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
         <v>35</v>
@@ -9656,7 +9582,7 @@
       </c>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J178" t="n">
         <v>2</v>
@@ -9705,7 +9631,7 @@
       </c>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J179" t="n">
         <v>2</v>
@@ -9744,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F180" t="n">
         <v>35</v>
@@ -9754,7 +9680,7 @@
       </c>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J180" t="n">
         <v>2</v>
@@ -9793,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F181" t="n">
         <v>35</v>
@@ -9803,7 +9729,7 @@
       </c>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J181" t="n">
         <v>2</v>
@@ -9842,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F182" t="n">
         <v>35</v>
@@ -9852,7 +9778,7 @@
       </c>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J182" t="n">
         <v>2</v>
@@ -9891,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F183" t="n">
         <v>35</v>
@@ -9901,7 +9827,7 @@
       </c>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J183" t="n">
         <v>2</v>
@@ -9940,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F184" t="n">
         <v>35</v>
@@ -9950,7 +9876,7 @@
       </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J184" t="n">
         <v>2</v>
@@ -9989,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F185" t="n">
         <v>35</v>
@@ -9999,7 +9925,7 @@
       </c>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J185" t="n">
         <v>2</v>
@@ -10038,7 +9964,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F186" t="n">
         <v>35</v>
@@ -10048,7 +9974,7 @@
       </c>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J186" t="n">
         <v>2</v>
@@ -10087,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F187" t="n">
         <v>35</v>
@@ -10097,7 +10023,7 @@
       </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J187" t="n">
         <v>2</v>
@@ -10136,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F188" t="n">
         <v>35</v>
@@ -10146,7 +10072,7 @@
       </c>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J188" t="n">
         <v>2</v>
@@ -10244,7 +10170,7 @@
       </c>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J190" t="n">
         <v>2</v>
@@ -10283,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
         <v>35</v>
@@ -10293,7 +10219,7 @@
       </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J191" t="n">
         <v>2</v>
@@ -10332,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F192" t="n">
         <v>35</v>
@@ -10342,7 +10268,7 @@
       </c>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J192" t="n">
         <v>2</v>
@@ -10381,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
         <v>35</v>
@@ -10391,7 +10317,7 @@
       </c>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J193" t="n">
         <v>2</v>
@@ -10430,7 +10356,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F194" t="n">
         <v>35</v>
@@ -10440,7 +10366,7 @@
       </c>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
         <v>2</v>
@@ -10479,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
         <v>35</v>
@@ -10489,7 +10415,7 @@
       </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J195" t="n">
         <v>2</v>
@@ -10528,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F196" t="n">
         <v>35</v>
@@ -10538,7 +10464,7 @@
       </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J196" t="n">
         <v>2</v>
@@ -10577,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F197" t="n">
         <v>35</v>
@@ -10587,7 +10513,7 @@
       </c>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J197" t="n">
         <v>2</v>
@@ -10626,17 +10552,17 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G198" t="n">
         <v>7</v>
       </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J198" t="n">
         <v>2</v>
@@ -10663,6 +10589,496 @@
       <c r="R198" t="inlineStr"/>
       <c r="S198" t="inlineStr"/>
     </row>
+    <row r="199">
+      <c r="A199" t="inlineStr"/>
+      <c r="B199" t="n">
+        <v>10</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>35</v>
+      </c>
+      <c r="G199" t="n">
+        <v>7</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>2</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q199" t="inlineStr"/>
+      <c r="R199" t="inlineStr"/>
+      <c r="S199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr"/>
+      <c r="B200" t="n">
+        <v>10</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>35</v>
+      </c>
+      <c r="G200" t="n">
+        <v>7</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J200" t="n">
+        <v>2</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr"/>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr"/>
+      <c r="R200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr"/>
+      <c r="B201" t="n">
+        <v>10</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F201" t="n">
+        <v>35</v>
+      </c>
+      <c r="G201" t="n">
+        <v>7</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J201" t="n">
+        <v>2</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q201" t="inlineStr"/>
+      <c r="R201" t="inlineStr"/>
+      <c r="S201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr"/>
+      <c r="B202" t="n">
+        <v>10</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F202" t="n">
+        <v>35</v>
+      </c>
+      <c r="G202" t="n">
+        <v>7</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J202" t="n">
+        <v>2</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="inlineStr"/>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr"/>
+      <c r="R202" t="inlineStr"/>
+      <c r="S202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr"/>
+      <c r="B203" t="n">
+        <v>10</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F203" t="n">
+        <v>35</v>
+      </c>
+      <c r="G203" t="n">
+        <v>7</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J203" t="n">
+        <v>2</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q203" t="inlineStr"/>
+      <c r="R203" t="inlineStr"/>
+      <c r="S203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr"/>
+      <c r="B204" t="n">
+        <v>10</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F204" t="n">
+        <v>35</v>
+      </c>
+      <c r="G204" t="n">
+        <v>7</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J204" t="n">
+        <v>2</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr"/>
+      <c r="R204" t="inlineStr"/>
+      <c r="S204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr"/>
+      <c r="B205" t="n">
+        <v>10</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>35</v>
+      </c>
+      <c r="G205" t="n">
+        <v>7</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J205" t="n">
+        <v>2</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="inlineStr"/>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr"/>
+      <c r="R205" t="inlineStr"/>
+      <c r="S205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr"/>
+      <c r="B206" t="n">
+        <v>10</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F206" t="n">
+        <v>35</v>
+      </c>
+      <c r="G206" t="n">
+        <v>7</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J206" t="n">
+        <v>2</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="inlineStr"/>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr"/>
+      <c r="B207" t="n">
+        <v>10</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F207" t="n">
+        <v>35</v>
+      </c>
+      <c r="G207" t="n">
+        <v>7</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J207" t="n">
+        <v>2</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr"/>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr"/>
+      <c r="S207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr"/>
+      <c r="B208" t="n">
+        <v>10</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F208" t="n">
+        <v>10</v>
+      </c>
+      <c r="G208" t="n">
+        <v>7</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J208" t="n">
+        <v>2</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>Unilateral</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr"/>
+      <c r="R208" t="inlineStr"/>
+      <c r="S208" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
